--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="388">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -279,6 +279,12 @@
     <t xml:space="preserve">../inputs/user/contact_id</t>
   </si>
   <si>
+    <t xml:space="preserve">selected_user_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../person/_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">user_name</t>
   </si>
   <si>
@@ -300,7 +306,7 @@
     <t xml:space="preserve">user_external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">../inputs/contact/external_id</t>
+    <t xml:space="preserve">/data/inputs/contact/external_id</t>
   </si>
   <si>
     <t xml:space="preserve">user_facility_id</t>
@@ -417,7 +423,10 @@
     <t xml:space="preserve">id_district_hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">Selectionner le Site</t>
+    <t xml:space="preserve">Select new site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selectionner le nouveau Site</t>
   </si>
   <si>
     <r>
@@ -467,7 +476,10 @@
     <t xml:space="preserve">id_health_center</t>
   </si>
   <si>
-    <t xml:space="preserve">Selectionner la Zone</t>
+    <t xml:space="preserve">Select new zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selectionner la nouvelle Zone</t>
   </si>
   <si>
     <r>
@@ -514,7 +526,10 @@
     <t xml:space="preserve">id_clinic</t>
   </si>
   <si>
-    <t xml:space="preserve">Selectionner la famille</t>
+    <t xml:space="preserve">Select new family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selectionner la nouvelle famille</t>
   </si>
   <si>
     <t xml:space="preserve">selected(${change_parent}, 'yes') and (selected(${edited_place_type}, 'clinic') or ${user_role}='chw')</t>
@@ -643,19 +658,19 @@
     <t xml:space="preserve">selected(../dob_method,'approx')</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age must be 0 or more</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’age doit être supérieur à 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Age in years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Age en années)</t>
+    <t xml:space="preserve">.&gt;=0 and .&lt;100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age must between 0 and 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’age doit être entre 0 et 99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**(Age in years)** Age must between 0 and 99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**(Age en années)** L’age doit être entre 0 et 99 </t>
   </si>
   <si>
     <t xml:space="preserve">age_months</t>
@@ -1234,6 +1249,15 @@
     <t xml:space="preserve">../type</t>
   </si>
   <si>
+    <t xml:space="preserve">Selectionner le Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selectionner la Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selectionner la famille</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1395,7 +1419,7 @@
     <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1466,12 +1490,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1674,7 +1692,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1759,7 +1777,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1779,7 +1797,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1843,6 +1861,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1879,10 +1901,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1891,11 +1909,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1911,15 +1925,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1927,7 +1941,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1935,19 +1957,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1955,31 +1989,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1995,11 +2009,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2007,11 +2021,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2019,7 +2033,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2364,9 +2378,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>48600</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2376,7 +2390,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="27234360" cy="14307840"/>
+          <a:ext cx="27231840" cy="14305320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2406,9 +2420,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>464040</xdr:colOff>
+      <xdr:colOff>461520</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2418,7 +2432,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14580720" cy="13105080"/>
+          <a:ext cx="14578200" cy="13102560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2450,10 +2464,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B44" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2472,7 +2486,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="30.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="15" style="1" width="7.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="30" style="1" width="15.33"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="30" style="1" width="15.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2544,6 +2558,8 @@
       <c r="K2" s="8"/>
       <c r="O2" s="8"/>
       <c r="R2" s="10"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
@@ -2564,6 +2580,8 @@
       <c r="K3" s="8"/>
       <c r="O3" s="8"/>
       <c r="R3" s="10"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
@@ -2632,6 +2650,8 @@
       <c r="K8" s="8"/>
       <c r="O8" s="8"/>
       <c r="R8" s="10"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
@@ -2651,6 +2671,8 @@
       <c r="K9" s="15"/>
       <c r="O9" s="15"/>
       <c r="R9" s="17"/>
+      <c r="AMI9" s="0"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
@@ -2724,7 +2746,7 @@
       <c r="G12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="26" t="b">
+      <c r="H12" s="26" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3744,8 +3766,6 @@
       <c r="AMF12" s="0"/>
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
-      <c r="AMI12" s="0"/>
-      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
@@ -3765,7 +3785,7 @@
       <c r="G13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="26" t="b">
+      <c r="H13" s="26" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4785,8 +4805,6 @@
       <c r="AMF13" s="0"/>
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
-      <c r="AMI13" s="0"/>
-      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
@@ -4802,7 +4820,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="H14" s="21" t="b">
+      <c r="H14" s="21" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4858,6 +4876,8 @@
       <c r="L16" s="29"/>
       <c r="O16" s="15"/>
       <c r="R16" s="17"/>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" s="31" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="30" t="s">
@@ -4881,6 +4901,8 @@
       <c r="L17" s="34"/>
       <c r="O17" s="33"/>
       <c r="R17" s="35"/>
+      <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="31" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="30" t="s">
@@ -4901,6 +4923,8 @@
       <c r="L18" s="34"/>
       <c r="O18" s="33"/>
       <c r="R18" s="35"/>
+      <c r="AMI18" s="0"/>
+      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
@@ -4944,6 +4968,8 @@
       <c r="L21" s="34"/>
       <c r="O21" s="33"/>
       <c r="R21" s="35"/>
+      <c r="AMI21" s="0"/>
+      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" s="31" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
@@ -4957,6 +4983,8 @@
       <c r="L22" s="34"/>
       <c r="O22" s="33"/>
       <c r="R22" s="35"/>
+      <c r="AMI22" s="0"/>
+      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
@@ -4969,6 +4997,8 @@
       <c r="K23" s="8"/>
       <c r="O23" s="8"/>
       <c r="R23" s="10"/>
+      <c r="AMI23" s="0"/>
+      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="12"/>
@@ -5023,7 +5053,7 @@
       <c r="D28" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="0"/>
+      <c r="F28" s="38"/>
       <c r="H28" s="36"/>
       <c r="J28" s="37"/>
       <c r="L28" s="14" t="s">
@@ -5031,31 +5061,20 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="0"/>
+      <c r="A29" s="14"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="F29" s="38"/>
       <c r="H29" s="36"/>
       <c r="J29" s="37"/>
-      <c r="L29" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>79</v>
+      <c r="B30" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>18</v>
@@ -5063,10 +5082,11 @@
       <c r="D30" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="F30" s="0"/>
+      <c r="H30" s="36"/>
+      <c r="J30" s="37"/>
       <c r="L30" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5074,7 +5094,7 @@
         <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" s="39" t="s">
         <v>18</v>
@@ -5082,18 +5102,19 @@
       <c r="D31" s="39" t="s">
         <v>18</v>
       </c>
+      <c r="F31" s="0"/>
       <c r="H31" s="36"/>
       <c r="J31" s="37"/>
       <c r="L31" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>83</v>
+      <c r="B32" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>18</v>
@@ -5101,18 +5122,20 @@
       <c r="D32" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="36"/>
-      <c r="J32" s="37"/>
+      <c r="H32" s="40"/>
+      <c r="J32" s="41"/>
       <c r="L32" s="14" t="s">
-        <v>84</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AMI32" s="0"/>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" s="39" t="s">
         <v>18</v>
@@ -5122,8 +5145,8 @@
       </c>
       <c r="H33" s="36"/>
       <c r="J33" s="37"/>
-      <c r="L33" s="14" t="s">
-        <v>86</v>
+      <c r="L33" s="42" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,7 +5154,7 @@
         <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>18</v>
@@ -5142,99 +5165,103 @@
       <c r="H34" s="36"/>
       <c r="J34" s="37"/>
       <c r="L34" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>18</v>
+      </c>
       <c r="H35" s="36"/>
       <c r="J35" s="37"/>
+      <c r="L35" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" s="36"/>
       <c r="J36" s="37"/>
+      <c r="L36" s="14" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
+      <c r="H37" s="36"/>
       <c r="J37" s="37"/>
     </row>
-    <row r="38" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q38" s="14" t="s">
-        <v>93</v>
-      </c>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="H38" s="36"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
-      <c r="L39" s="1" t="s">
+      <c r="J39" s="37"/>
+    </row>
+    <row r="40" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q40" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="Q39" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="L40" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="AMI40" s="0"/>
+      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
       <c r="L41" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5242,1958 +5269,1986 @@
         <v>72</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
       <c r="L42" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="Q44" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="42" t="s">
-        <v>122</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>125</v>
+        <v>64</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="42" t="s">
-        <v>129</v>
+      <c r="F48" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q50" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N49" s="1" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0"/>
-      <c r="B50" s="0"/>
-      <c r="C50" s="0"/>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0"/>
-      <c r="F50" s="0"/>
-      <c r="G50" s="0"/>
-      <c r="H50" s="0"/>
-      <c r="I50" s="0"/>
-      <c r="J50" s="0"/>
-      <c r="K50" s="0"/>
-      <c r="L50" s="0"/>
-      <c r="M50" s="0"/>
-      <c r="N50" s="0"/>
-      <c r="O50" s="0"/>
-      <c r="P50" s="0"/>
-      <c r="Q50" s="0"/>
-      <c r="R50" s="0"/>
-      <c r="S50" s="0"/>
-      <c r="T50" s="0"/>
-      <c r="U50" s="0"/>
-      <c r="V50" s="0"/>
-      <c r="W50" s="0"/>
-      <c r="X50" s="0"/>
-      <c r="Y50" s="0"/>
-      <c r="Z50" s="0"/>
-      <c r="AA50" s="0"/>
-      <c r="AB50" s="0"/>
-      <c r="AC50" s="0"/>
-      <c r="AD50" s="0"/>
-      <c r="AE50" s="0"/>
-      <c r="AF50" s="0"/>
-      <c r="AG50" s="0"/>
-      <c r="AH50" s="0"/>
-      <c r="AI50" s="0"/>
-      <c r="AJ50" s="0"/>
-      <c r="AK50" s="0"/>
-      <c r="AL50" s="0"/>
-      <c r="AM50" s="0"/>
-      <c r="AN50" s="0"/>
-      <c r="AO50" s="0"/>
-      <c r="AP50" s="0"/>
-      <c r="AQ50" s="0"/>
-      <c r="AR50" s="0"/>
-      <c r="AS50" s="0"/>
-      <c r="AT50" s="0"/>
-      <c r="AU50" s="0"/>
-      <c r="AV50" s="0"/>
-      <c r="AW50" s="0"/>
-      <c r="AX50" s="0"/>
-      <c r="AY50" s="0"/>
-      <c r="AZ50" s="0"/>
-      <c r="BA50" s="0"/>
-      <c r="BB50" s="0"/>
-      <c r="BC50" s="0"/>
-      <c r="BD50" s="0"/>
-      <c r="BE50" s="0"/>
-      <c r="BF50" s="0"/>
-      <c r="BG50" s="0"/>
-      <c r="BH50" s="0"/>
-      <c r="BI50" s="0"/>
-      <c r="BJ50" s="0"/>
-      <c r="BK50" s="0"/>
-      <c r="BL50" s="0"/>
-      <c r="BM50" s="0"/>
-      <c r="BN50" s="0"/>
-      <c r="BO50" s="0"/>
-      <c r="BP50" s="0"/>
-      <c r="BQ50" s="0"/>
-      <c r="BR50" s="0"/>
-      <c r="BS50" s="0"/>
-      <c r="BT50" s="0"/>
-      <c r="BU50" s="0"/>
-      <c r="BV50" s="0"/>
-      <c r="BW50" s="0"/>
-      <c r="BX50" s="0"/>
-      <c r="BY50" s="0"/>
-      <c r="BZ50" s="0"/>
-      <c r="CA50" s="0"/>
-      <c r="CB50" s="0"/>
-      <c r="CC50" s="0"/>
-      <c r="CD50" s="0"/>
-      <c r="CE50" s="0"/>
-      <c r="CF50" s="0"/>
-      <c r="CG50" s="0"/>
-      <c r="CH50" s="0"/>
-      <c r="CI50" s="0"/>
-      <c r="CJ50" s="0"/>
-      <c r="CK50" s="0"/>
-      <c r="CL50" s="0"/>
-      <c r="CM50" s="0"/>
-      <c r="CN50" s="0"/>
-      <c r="CO50" s="0"/>
-      <c r="CP50" s="0"/>
-      <c r="CQ50" s="0"/>
-      <c r="CR50" s="0"/>
-      <c r="CS50" s="0"/>
-      <c r="CT50" s="0"/>
-      <c r="CU50" s="0"/>
-      <c r="CV50" s="0"/>
-      <c r="CW50" s="0"/>
-      <c r="CX50" s="0"/>
-      <c r="CY50" s="0"/>
-      <c r="CZ50" s="0"/>
-      <c r="DA50" s="0"/>
-      <c r="DB50" s="0"/>
-      <c r="DC50" s="0"/>
-      <c r="DD50" s="0"/>
-      <c r="DE50" s="0"/>
-      <c r="DF50" s="0"/>
-      <c r="DG50" s="0"/>
-      <c r="DH50" s="0"/>
-      <c r="DI50" s="0"/>
-      <c r="DJ50" s="0"/>
-      <c r="DK50" s="0"/>
-      <c r="DL50" s="0"/>
-      <c r="DM50" s="0"/>
-      <c r="DN50" s="0"/>
-      <c r="DO50" s="0"/>
-      <c r="DP50" s="0"/>
-      <c r="DQ50" s="0"/>
-      <c r="DR50" s="0"/>
-      <c r="DS50" s="0"/>
-      <c r="DT50" s="0"/>
-      <c r="DU50" s="0"/>
-      <c r="DV50" s="0"/>
-      <c r="DW50" s="0"/>
-      <c r="DX50" s="0"/>
-      <c r="DY50" s="0"/>
-      <c r="DZ50" s="0"/>
-      <c r="EA50" s="0"/>
-      <c r="EB50" s="0"/>
-      <c r="EC50" s="0"/>
-      <c r="ED50" s="0"/>
-      <c r="EE50" s="0"/>
-      <c r="EF50" s="0"/>
-      <c r="EG50" s="0"/>
-      <c r="EH50" s="0"/>
-      <c r="EI50" s="0"/>
-      <c r="EJ50" s="0"/>
-      <c r="EK50" s="0"/>
-      <c r="EL50" s="0"/>
-      <c r="EM50" s="0"/>
-      <c r="EN50" s="0"/>
-      <c r="EO50" s="0"/>
-      <c r="EP50" s="0"/>
-      <c r="EQ50" s="0"/>
-      <c r="ER50" s="0"/>
-      <c r="ES50" s="0"/>
-      <c r="ET50" s="0"/>
-      <c r="EU50" s="0"/>
-      <c r="EV50" s="0"/>
-      <c r="EW50" s="0"/>
-      <c r="EX50" s="0"/>
-      <c r="EY50" s="0"/>
-      <c r="EZ50" s="0"/>
-      <c r="FA50" s="0"/>
-      <c r="FB50" s="0"/>
-      <c r="FC50" s="0"/>
-      <c r="FD50" s="0"/>
-      <c r="FE50" s="0"/>
-      <c r="FF50" s="0"/>
-      <c r="FG50" s="0"/>
-      <c r="FH50" s="0"/>
-      <c r="FI50" s="0"/>
-      <c r="FJ50" s="0"/>
-      <c r="FK50" s="0"/>
-      <c r="FL50" s="0"/>
-      <c r="FM50" s="0"/>
-      <c r="FN50" s="0"/>
-      <c r="FO50" s="0"/>
-      <c r="FP50" s="0"/>
-      <c r="FQ50" s="0"/>
-      <c r="FR50" s="0"/>
-      <c r="FS50" s="0"/>
-      <c r="FT50" s="0"/>
-      <c r="FU50" s="0"/>
-      <c r="FV50" s="0"/>
-      <c r="FW50" s="0"/>
-      <c r="FX50" s="0"/>
-      <c r="FY50" s="0"/>
-      <c r="FZ50" s="0"/>
-      <c r="GA50" s="0"/>
-      <c r="GB50" s="0"/>
-      <c r="GC50" s="0"/>
-      <c r="GD50" s="0"/>
-      <c r="GE50" s="0"/>
-      <c r="GF50" s="0"/>
-      <c r="GG50" s="0"/>
-      <c r="GH50" s="0"/>
-      <c r="GI50" s="0"/>
-      <c r="GJ50" s="0"/>
-      <c r="GK50" s="0"/>
-      <c r="GL50" s="0"/>
-      <c r="GM50" s="0"/>
-      <c r="GN50" s="0"/>
-      <c r="GO50" s="0"/>
-      <c r="GP50" s="0"/>
-      <c r="GQ50" s="0"/>
-      <c r="GR50" s="0"/>
-      <c r="GS50" s="0"/>
-      <c r="GT50" s="0"/>
-      <c r="GU50" s="0"/>
-      <c r="GV50" s="0"/>
-      <c r="GW50" s="0"/>
-      <c r="GX50" s="0"/>
-      <c r="GY50" s="0"/>
-      <c r="GZ50" s="0"/>
-      <c r="HA50" s="0"/>
-      <c r="HB50" s="0"/>
-      <c r="HC50" s="0"/>
-      <c r="HD50" s="0"/>
-      <c r="HE50" s="0"/>
-      <c r="HF50" s="0"/>
-      <c r="HG50" s="0"/>
-      <c r="HH50" s="0"/>
-      <c r="HI50" s="0"/>
-      <c r="HJ50" s="0"/>
-      <c r="HK50" s="0"/>
-      <c r="HL50" s="0"/>
-      <c r="HM50" s="0"/>
-      <c r="HN50" s="0"/>
-      <c r="HO50" s="0"/>
-      <c r="HP50" s="0"/>
-      <c r="HQ50" s="0"/>
-      <c r="HR50" s="0"/>
-      <c r="HS50" s="0"/>
-      <c r="HT50" s="0"/>
-      <c r="HU50" s="0"/>
-      <c r="HV50" s="0"/>
-      <c r="HW50" s="0"/>
-      <c r="HX50" s="0"/>
-      <c r="HY50" s="0"/>
-      <c r="HZ50" s="0"/>
-      <c r="IA50" s="0"/>
-      <c r="IB50" s="0"/>
-      <c r="IC50" s="0"/>
-      <c r="ID50" s="0"/>
-      <c r="IE50" s="0"/>
-      <c r="IF50" s="0"/>
-      <c r="IG50" s="0"/>
-      <c r="IH50" s="0"/>
-      <c r="II50" s="0"/>
-      <c r="IJ50" s="0"/>
-      <c r="IK50" s="0"/>
-      <c r="IL50" s="0"/>
-      <c r="IM50" s="0"/>
-      <c r="IN50" s="0"/>
-      <c r="IO50" s="0"/>
-      <c r="IP50" s="0"/>
-      <c r="IQ50" s="0"/>
-      <c r="IR50" s="0"/>
-      <c r="IS50" s="0"/>
-      <c r="IT50" s="0"/>
-      <c r="IU50" s="0"/>
-      <c r="IV50" s="0"/>
-      <c r="IW50" s="0"/>
-      <c r="IX50" s="0"/>
-      <c r="IY50" s="0"/>
-      <c r="IZ50" s="0"/>
-      <c r="JA50" s="0"/>
-      <c r="JB50" s="0"/>
-      <c r="JC50" s="0"/>
-      <c r="JD50" s="0"/>
-      <c r="JE50" s="0"/>
-      <c r="JF50" s="0"/>
-      <c r="JG50" s="0"/>
-      <c r="JH50" s="0"/>
-      <c r="JI50" s="0"/>
-      <c r="JJ50" s="0"/>
-      <c r="JK50" s="0"/>
-      <c r="JL50" s="0"/>
-      <c r="JM50" s="0"/>
-      <c r="JN50" s="0"/>
-      <c r="JO50" s="0"/>
-      <c r="JP50" s="0"/>
-      <c r="JQ50" s="0"/>
-      <c r="JR50" s="0"/>
-      <c r="JS50" s="0"/>
-      <c r="JT50" s="0"/>
-      <c r="JU50" s="0"/>
-      <c r="JV50" s="0"/>
-      <c r="JW50" s="0"/>
-      <c r="JX50" s="0"/>
-      <c r="JY50" s="0"/>
-      <c r="JZ50" s="0"/>
-      <c r="KA50" s="0"/>
-      <c r="KB50" s="0"/>
-      <c r="KC50" s="0"/>
-      <c r="KD50" s="0"/>
-      <c r="KE50" s="0"/>
-      <c r="KF50" s="0"/>
-      <c r="KG50" s="0"/>
-      <c r="KH50" s="0"/>
-      <c r="KI50" s="0"/>
-      <c r="KJ50" s="0"/>
-      <c r="KK50" s="0"/>
-      <c r="KL50" s="0"/>
-      <c r="KM50" s="0"/>
-      <c r="KN50" s="0"/>
-      <c r="KO50" s="0"/>
-      <c r="KP50" s="0"/>
-      <c r="KQ50" s="0"/>
-      <c r="KR50" s="0"/>
-      <c r="KS50" s="0"/>
-      <c r="KT50" s="0"/>
-      <c r="KU50" s="0"/>
-      <c r="KV50" s="0"/>
-      <c r="KW50" s="0"/>
-      <c r="KX50" s="0"/>
-      <c r="KY50" s="0"/>
-      <c r="KZ50" s="0"/>
-      <c r="LA50" s="0"/>
-      <c r="LB50" s="0"/>
-      <c r="LC50" s="0"/>
-      <c r="LD50" s="0"/>
-      <c r="LE50" s="0"/>
-      <c r="LF50" s="0"/>
-      <c r="LG50" s="0"/>
-      <c r="LH50" s="0"/>
-      <c r="LI50" s="0"/>
-      <c r="LJ50" s="0"/>
-      <c r="LK50" s="0"/>
-      <c r="LL50" s="0"/>
-      <c r="LM50" s="0"/>
-      <c r="LN50" s="0"/>
-      <c r="LO50" s="0"/>
-      <c r="LP50" s="0"/>
-      <c r="LQ50" s="0"/>
-      <c r="LR50" s="0"/>
-      <c r="LS50" s="0"/>
-      <c r="LT50" s="0"/>
-      <c r="LU50" s="0"/>
-      <c r="LV50" s="0"/>
-      <c r="LW50" s="0"/>
-      <c r="LX50" s="0"/>
-      <c r="LY50" s="0"/>
-      <c r="LZ50" s="0"/>
-      <c r="MA50" s="0"/>
-      <c r="MB50" s="0"/>
-      <c r="MC50" s="0"/>
-      <c r="MD50" s="0"/>
-      <c r="ME50" s="0"/>
-      <c r="MF50" s="0"/>
-      <c r="MG50" s="0"/>
-      <c r="MH50" s="0"/>
-      <c r="MI50" s="0"/>
-      <c r="MJ50" s="0"/>
-      <c r="MK50" s="0"/>
-      <c r="ML50" s="0"/>
-      <c r="MM50" s="0"/>
-      <c r="MN50" s="0"/>
-      <c r="MO50" s="0"/>
-      <c r="MP50" s="0"/>
-      <c r="MQ50" s="0"/>
-      <c r="MR50" s="0"/>
-      <c r="MS50" s="0"/>
-      <c r="MT50" s="0"/>
-      <c r="MU50" s="0"/>
-      <c r="MV50" s="0"/>
-      <c r="MW50" s="0"/>
-      <c r="MX50" s="0"/>
-      <c r="MY50" s="0"/>
-      <c r="MZ50" s="0"/>
-      <c r="NA50" s="0"/>
-      <c r="NB50" s="0"/>
-      <c r="NC50" s="0"/>
-      <c r="ND50" s="0"/>
-      <c r="NE50" s="0"/>
-      <c r="NF50" s="0"/>
-      <c r="NG50" s="0"/>
-      <c r="NH50" s="0"/>
-      <c r="NI50" s="0"/>
-      <c r="NJ50" s="0"/>
-      <c r="NK50" s="0"/>
-      <c r="NL50" s="0"/>
-      <c r="NM50" s="0"/>
-      <c r="NN50" s="0"/>
-      <c r="NO50" s="0"/>
-      <c r="NP50" s="0"/>
-      <c r="NQ50" s="0"/>
-      <c r="NR50" s="0"/>
-      <c r="NS50" s="0"/>
-      <c r="NT50" s="0"/>
-      <c r="NU50" s="0"/>
-      <c r="NV50" s="0"/>
-      <c r="NW50" s="0"/>
-      <c r="NX50" s="0"/>
-      <c r="NY50" s="0"/>
-      <c r="NZ50" s="0"/>
-      <c r="OA50" s="0"/>
-      <c r="OB50" s="0"/>
-      <c r="OC50" s="0"/>
-      <c r="OD50" s="0"/>
-      <c r="OE50" s="0"/>
-      <c r="OF50" s="0"/>
-      <c r="OG50" s="0"/>
-      <c r="OH50" s="0"/>
-      <c r="OI50" s="0"/>
-      <c r="OJ50" s="0"/>
-      <c r="OK50" s="0"/>
-      <c r="OL50" s="0"/>
-      <c r="OM50" s="0"/>
-      <c r="ON50" s="0"/>
-      <c r="OO50" s="0"/>
-      <c r="OP50" s="0"/>
-      <c r="OQ50" s="0"/>
-      <c r="OR50" s="0"/>
-      <c r="OS50" s="0"/>
-      <c r="OT50" s="0"/>
-      <c r="OU50" s="0"/>
-      <c r="OV50" s="0"/>
-      <c r="OW50" s="0"/>
-      <c r="OX50" s="0"/>
-      <c r="OY50" s="0"/>
-      <c r="OZ50" s="0"/>
-      <c r="PA50" s="0"/>
-      <c r="PB50" s="0"/>
-      <c r="PC50" s="0"/>
-      <c r="PD50" s="0"/>
-      <c r="PE50" s="0"/>
-      <c r="PF50" s="0"/>
-      <c r="PG50" s="0"/>
-      <c r="PH50" s="0"/>
-      <c r="PI50" s="0"/>
-      <c r="PJ50" s="0"/>
-      <c r="PK50" s="0"/>
-      <c r="PL50" s="0"/>
-      <c r="PM50" s="0"/>
-      <c r="PN50" s="0"/>
-      <c r="PO50" s="0"/>
-      <c r="PP50" s="0"/>
-      <c r="PQ50" s="0"/>
-      <c r="PR50" s="0"/>
-      <c r="PS50" s="0"/>
-      <c r="PT50" s="0"/>
-      <c r="PU50" s="0"/>
-      <c r="PV50" s="0"/>
-      <c r="PW50" s="0"/>
-      <c r="PX50" s="0"/>
-      <c r="PY50" s="0"/>
-      <c r="PZ50" s="0"/>
-      <c r="QA50" s="0"/>
-      <c r="QB50" s="0"/>
-      <c r="QC50" s="0"/>
-      <c r="QD50" s="0"/>
-      <c r="QE50" s="0"/>
-      <c r="QF50" s="0"/>
-      <c r="QG50" s="0"/>
-      <c r="QH50" s="0"/>
-      <c r="QI50" s="0"/>
-      <c r="QJ50" s="0"/>
-      <c r="QK50" s="0"/>
-      <c r="QL50" s="0"/>
-      <c r="QM50" s="0"/>
-      <c r="QN50" s="0"/>
-      <c r="QO50" s="0"/>
-      <c r="QP50" s="0"/>
-      <c r="QQ50" s="0"/>
-      <c r="QR50" s="0"/>
-      <c r="QS50" s="0"/>
-      <c r="QT50" s="0"/>
-      <c r="QU50" s="0"/>
-      <c r="QV50" s="0"/>
-      <c r="QW50" s="0"/>
-      <c r="QX50" s="0"/>
-      <c r="QY50" s="0"/>
-      <c r="QZ50" s="0"/>
-      <c r="RA50" s="0"/>
-      <c r="RB50" s="0"/>
-      <c r="RC50" s="0"/>
-      <c r="RD50" s="0"/>
-      <c r="RE50" s="0"/>
-      <c r="RF50" s="0"/>
-      <c r="RG50" s="0"/>
-      <c r="RH50" s="0"/>
-      <c r="RI50" s="0"/>
-      <c r="RJ50" s="0"/>
-      <c r="RK50" s="0"/>
-      <c r="RL50" s="0"/>
-      <c r="RM50" s="0"/>
-      <c r="RN50" s="0"/>
-      <c r="RO50" s="0"/>
-      <c r="RP50" s="0"/>
-      <c r="RQ50" s="0"/>
-      <c r="RR50" s="0"/>
-      <c r="RS50" s="0"/>
-      <c r="RT50" s="0"/>
-      <c r="RU50" s="0"/>
-      <c r="RV50" s="0"/>
-      <c r="RW50" s="0"/>
-      <c r="RX50" s="0"/>
-      <c r="RY50" s="0"/>
-      <c r="RZ50" s="0"/>
-      <c r="SA50" s="0"/>
-      <c r="SB50" s="0"/>
-      <c r="SC50" s="0"/>
-      <c r="SD50" s="0"/>
-      <c r="SE50" s="0"/>
-      <c r="SF50" s="0"/>
-      <c r="SG50" s="0"/>
-      <c r="SH50" s="0"/>
-      <c r="SI50" s="0"/>
-      <c r="SJ50" s="0"/>
-      <c r="SK50" s="0"/>
-      <c r="SL50" s="0"/>
-      <c r="SM50" s="0"/>
-      <c r="SN50" s="0"/>
-      <c r="SO50" s="0"/>
-      <c r="SP50" s="0"/>
-      <c r="SQ50" s="0"/>
-      <c r="SR50" s="0"/>
-      <c r="SS50" s="0"/>
-      <c r="ST50" s="0"/>
-      <c r="SU50" s="0"/>
-      <c r="SV50" s="0"/>
-      <c r="SW50" s="0"/>
-      <c r="SX50" s="0"/>
-      <c r="SY50" s="0"/>
-      <c r="SZ50" s="0"/>
-      <c r="TA50" s="0"/>
-      <c r="TB50" s="0"/>
-      <c r="TC50" s="0"/>
-      <c r="TD50" s="0"/>
-      <c r="TE50" s="0"/>
-      <c r="TF50" s="0"/>
-      <c r="TG50" s="0"/>
-      <c r="TH50" s="0"/>
-      <c r="TI50" s="0"/>
-      <c r="TJ50" s="0"/>
-      <c r="TK50" s="0"/>
-      <c r="TL50" s="0"/>
-      <c r="TM50" s="0"/>
-      <c r="TN50" s="0"/>
-      <c r="TO50" s="0"/>
-      <c r="TP50" s="0"/>
-      <c r="TQ50" s="0"/>
-      <c r="TR50" s="0"/>
-      <c r="TS50" s="0"/>
-      <c r="TT50" s="0"/>
-      <c r="TU50" s="0"/>
-      <c r="TV50" s="0"/>
-      <c r="TW50" s="0"/>
-      <c r="TX50" s="0"/>
-      <c r="TY50" s="0"/>
-      <c r="TZ50" s="0"/>
-      <c r="UA50" s="0"/>
-      <c r="UB50" s="0"/>
-      <c r="UC50" s="0"/>
-      <c r="UD50" s="0"/>
-      <c r="UE50" s="0"/>
-      <c r="UF50" s="0"/>
-      <c r="UG50" s="0"/>
-      <c r="UH50" s="0"/>
-      <c r="UI50" s="0"/>
-      <c r="UJ50" s="0"/>
-      <c r="UK50" s="0"/>
-      <c r="UL50" s="0"/>
-      <c r="UM50" s="0"/>
-      <c r="UN50" s="0"/>
-      <c r="UO50" s="0"/>
-      <c r="UP50" s="0"/>
-      <c r="UQ50" s="0"/>
-      <c r="UR50" s="0"/>
-      <c r="US50" s="0"/>
-      <c r="UT50" s="0"/>
-      <c r="UU50" s="0"/>
-      <c r="UV50" s="0"/>
-      <c r="UW50" s="0"/>
-      <c r="UX50" s="0"/>
-      <c r="UY50" s="0"/>
-      <c r="UZ50" s="0"/>
-      <c r="VA50" s="0"/>
-      <c r="VB50" s="0"/>
-      <c r="VC50" s="0"/>
-      <c r="VD50" s="0"/>
-      <c r="VE50" s="0"/>
-      <c r="VF50" s="0"/>
-      <c r="VG50" s="0"/>
-      <c r="VH50" s="0"/>
-      <c r="VI50" s="0"/>
-      <c r="VJ50" s="0"/>
-      <c r="VK50" s="0"/>
-      <c r="VL50" s="0"/>
-      <c r="VM50" s="0"/>
-      <c r="VN50" s="0"/>
-      <c r="VO50" s="0"/>
-      <c r="VP50" s="0"/>
-      <c r="VQ50" s="0"/>
-      <c r="VR50" s="0"/>
-      <c r="VS50" s="0"/>
-      <c r="VT50" s="0"/>
-      <c r="VU50" s="0"/>
-      <c r="VV50" s="0"/>
-      <c r="VW50" s="0"/>
-      <c r="VX50" s="0"/>
-      <c r="VY50" s="0"/>
-      <c r="VZ50" s="0"/>
-      <c r="WA50" s="0"/>
-      <c r="WB50" s="0"/>
-      <c r="WC50" s="0"/>
-      <c r="WD50" s="0"/>
-      <c r="WE50" s="0"/>
-      <c r="WF50" s="0"/>
-      <c r="WG50" s="0"/>
-      <c r="WH50" s="0"/>
-      <c r="WI50" s="0"/>
-      <c r="WJ50" s="0"/>
-      <c r="WK50" s="0"/>
-      <c r="WL50" s="0"/>
-      <c r="WM50" s="0"/>
-      <c r="WN50" s="0"/>
-      <c r="WO50" s="0"/>
-      <c r="WP50" s="0"/>
-      <c r="WQ50" s="0"/>
-      <c r="WR50" s="0"/>
-      <c r="WS50" s="0"/>
-      <c r="WT50" s="0"/>
-      <c r="WU50" s="0"/>
-      <c r="WV50" s="0"/>
-      <c r="WW50" s="0"/>
-      <c r="WX50" s="0"/>
-      <c r="WY50" s="0"/>
-      <c r="WZ50" s="0"/>
-      <c r="XA50" s="0"/>
-      <c r="XB50" s="0"/>
-      <c r="XC50" s="0"/>
-      <c r="XD50" s="0"/>
-      <c r="XE50" s="0"/>
-      <c r="XF50" s="0"/>
-      <c r="XG50" s="0"/>
-      <c r="XH50" s="0"/>
-      <c r="XI50" s="0"/>
-      <c r="XJ50" s="0"/>
-      <c r="XK50" s="0"/>
-      <c r="XL50" s="0"/>
-      <c r="XM50" s="0"/>
-      <c r="XN50" s="0"/>
-      <c r="XO50" s="0"/>
-      <c r="XP50" s="0"/>
-      <c r="XQ50" s="0"/>
-      <c r="XR50" s="0"/>
-      <c r="XS50" s="0"/>
-      <c r="XT50" s="0"/>
-      <c r="XU50" s="0"/>
-      <c r="XV50" s="0"/>
-      <c r="XW50" s="0"/>
-      <c r="XX50" s="0"/>
-      <c r="XY50" s="0"/>
-      <c r="XZ50" s="0"/>
-      <c r="YA50" s="0"/>
-      <c r="YB50" s="0"/>
-      <c r="YC50" s="0"/>
-      <c r="YD50" s="0"/>
-      <c r="YE50" s="0"/>
-      <c r="YF50" s="0"/>
-      <c r="YG50" s="0"/>
-      <c r="YH50" s="0"/>
-      <c r="YI50" s="0"/>
-      <c r="YJ50" s="0"/>
-      <c r="YK50" s="0"/>
-      <c r="YL50" s="0"/>
-      <c r="YM50" s="0"/>
-      <c r="YN50" s="0"/>
-      <c r="YO50" s="0"/>
-      <c r="YP50" s="0"/>
-      <c r="YQ50" s="0"/>
-      <c r="YR50" s="0"/>
-      <c r="YS50" s="0"/>
-      <c r="YT50" s="0"/>
-      <c r="YU50" s="0"/>
-      <c r="YV50" s="0"/>
-      <c r="YW50" s="0"/>
-      <c r="YX50" s="0"/>
-      <c r="YY50" s="0"/>
-      <c r="YZ50" s="0"/>
-      <c r="ZA50" s="0"/>
-      <c r="ZB50" s="0"/>
-      <c r="ZC50" s="0"/>
-      <c r="ZD50" s="0"/>
-      <c r="ZE50" s="0"/>
-      <c r="ZF50" s="0"/>
-      <c r="ZG50" s="0"/>
-      <c r="ZH50" s="0"/>
-      <c r="ZI50" s="0"/>
-      <c r="ZJ50" s="0"/>
-      <c r="ZK50" s="0"/>
-      <c r="ZL50" s="0"/>
-      <c r="ZM50" s="0"/>
-      <c r="ZN50" s="0"/>
-      <c r="ZO50" s="0"/>
-      <c r="ZP50" s="0"/>
-      <c r="ZQ50" s="0"/>
-      <c r="ZR50" s="0"/>
-      <c r="ZS50" s="0"/>
-      <c r="ZT50" s="0"/>
-      <c r="ZU50" s="0"/>
-      <c r="ZV50" s="0"/>
-      <c r="ZW50" s="0"/>
-      <c r="ZX50" s="0"/>
-      <c r="ZY50" s="0"/>
-      <c r="ZZ50" s="0"/>
-      <c r="AAA50" s="0"/>
-      <c r="AAB50" s="0"/>
-      <c r="AAC50" s="0"/>
-      <c r="AAD50" s="0"/>
-      <c r="AAE50" s="0"/>
-      <c r="AAF50" s="0"/>
-      <c r="AAG50" s="0"/>
-      <c r="AAH50" s="0"/>
-      <c r="AAI50" s="0"/>
-      <c r="AAJ50" s="0"/>
-      <c r="AAK50" s="0"/>
-      <c r="AAL50" s="0"/>
-      <c r="AAM50" s="0"/>
-      <c r="AAN50" s="0"/>
-      <c r="AAO50" s="0"/>
-      <c r="AAP50" s="0"/>
-      <c r="AAQ50" s="0"/>
-      <c r="AAR50" s="0"/>
-      <c r="AAS50" s="0"/>
-      <c r="AAT50" s="0"/>
-      <c r="AAU50" s="0"/>
-      <c r="AAV50" s="0"/>
-      <c r="AAW50" s="0"/>
-      <c r="AAX50" s="0"/>
-      <c r="AAY50" s="0"/>
-      <c r="AAZ50" s="0"/>
-      <c r="ABA50" s="0"/>
-      <c r="ABB50" s="0"/>
-      <c r="ABC50" s="0"/>
-      <c r="ABD50" s="0"/>
-      <c r="ABE50" s="0"/>
-      <c r="ABF50" s="0"/>
-      <c r="ABG50" s="0"/>
-      <c r="ABH50" s="0"/>
-      <c r="ABI50" s="0"/>
-      <c r="ABJ50" s="0"/>
-      <c r="ABK50" s="0"/>
-      <c r="ABL50" s="0"/>
-      <c r="ABM50" s="0"/>
-      <c r="ABN50" s="0"/>
-      <c r="ABO50" s="0"/>
-      <c r="ABP50" s="0"/>
-      <c r="ABQ50" s="0"/>
-      <c r="ABR50" s="0"/>
-      <c r="ABS50" s="0"/>
-      <c r="ABT50" s="0"/>
-      <c r="ABU50" s="0"/>
-      <c r="ABV50" s="0"/>
-      <c r="ABW50" s="0"/>
-      <c r="ABX50" s="0"/>
-      <c r="ABY50" s="0"/>
-      <c r="ABZ50" s="0"/>
-      <c r="ACA50" s="0"/>
-      <c r="ACB50" s="0"/>
-      <c r="ACC50" s="0"/>
-      <c r="ACD50" s="0"/>
-      <c r="ACE50" s="0"/>
-      <c r="ACF50" s="0"/>
-      <c r="ACG50" s="0"/>
-      <c r="ACH50" s="0"/>
-      <c r="ACI50" s="0"/>
-      <c r="ACJ50" s="0"/>
-      <c r="ACK50" s="0"/>
-      <c r="ACL50" s="0"/>
-      <c r="ACM50" s="0"/>
-      <c r="ACN50" s="0"/>
-      <c r="ACO50" s="0"/>
-      <c r="ACP50" s="0"/>
-      <c r="ACQ50" s="0"/>
-      <c r="ACR50" s="0"/>
-      <c r="ACS50" s="0"/>
-      <c r="ACT50" s="0"/>
-      <c r="ACU50" s="0"/>
-      <c r="ACV50" s="0"/>
-      <c r="ACW50" s="0"/>
-      <c r="ACX50" s="0"/>
-      <c r="ACY50" s="0"/>
-      <c r="ACZ50" s="0"/>
-      <c r="ADA50" s="0"/>
-      <c r="ADB50" s="0"/>
-      <c r="ADC50" s="0"/>
-      <c r="ADD50" s="0"/>
-      <c r="ADE50" s="0"/>
-      <c r="ADF50" s="0"/>
-      <c r="ADG50" s="0"/>
-      <c r="ADH50" s="0"/>
-      <c r="ADI50" s="0"/>
-      <c r="ADJ50" s="0"/>
-      <c r="ADK50" s="0"/>
-      <c r="ADL50" s="0"/>
-      <c r="ADM50" s="0"/>
-      <c r="ADN50" s="0"/>
-      <c r="ADO50" s="0"/>
-      <c r="ADP50" s="0"/>
-      <c r="ADQ50" s="0"/>
-      <c r="ADR50" s="0"/>
-      <c r="ADS50" s="0"/>
-      <c r="ADT50" s="0"/>
-      <c r="ADU50" s="0"/>
-      <c r="ADV50" s="0"/>
-      <c r="ADW50" s="0"/>
-      <c r="ADX50" s="0"/>
-      <c r="ADY50" s="0"/>
-      <c r="ADZ50" s="0"/>
-      <c r="AEA50" s="0"/>
-      <c r="AEB50" s="0"/>
-      <c r="AEC50" s="0"/>
-      <c r="AED50" s="0"/>
-      <c r="AEE50" s="0"/>
-      <c r="AEF50" s="0"/>
-      <c r="AEG50" s="0"/>
-      <c r="AEH50" s="0"/>
-      <c r="AEI50" s="0"/>
-      <c r="AEJ50" s="0"/>
-      <c r="AEK50" s="0"/>
-      <c r="AEL50" s="0"/>
-      <c r="AEM50" s="0"/>
-      <c r="AEN50" s="0"/>
-      <c r="AEO50" s="0"/>
-      <c r="AEP50" s="0"/>
-      <c r="AEQ50" s="0"/>
-      <c r="AER50" s="0"/>
-      <c r="AES50" s="0"/>
-      <c r="AET50" s="0"/>
-      <c r="AEU50" s="0"/>
-      <c r="AEV50" s="0"/>
-      <c r="AEW50" s="0"/>
-      <c r="AEX50" s="0"/>
-      <c r="AEY50" s="0"/>
-      <c r="AEZ50" s="0"/>
-      <c r="AFA50" s="0"/>
-      <c r="AFB50" s="0"/>
-      <c r="AFC50" s="0"/>
-      <c r="AFD50" s="0"/>
-      <c r="AFE50" s="0"/>
-      <c r="AFF50" s="0"/>
-      <c r="AFG50" s="0"/>
-      <c r="AFH50" s="0"/>
-      <c r="AFI50" s="0"/>
-      <c r="AFJ50" s="0"/>
-      <c r="AFK50" s="0"/>
-      <c r="AFL50" s="0"/>
-      <c r="AFM50" s="0"/>
-      <c r="AFN50" s="0"/>
-      <c r="AFO50" s="0"/>
-      <c r="AFP50" s="0"/>
-      <c r="AFQ50" s="0"/>
-      <c r="AFR50" s="0"/>
-      <c r="AFS50" s="0"/>
-      <c r="AFT50" s="0"/>
-      <c r="AFU50" s="0"/>
-      <c r="AFV50" s="0"/>
-      <c r="AFW50" s="0"/>
-      <c r="AFX50" s="0"/>
-      <c r="AFY50" s="0"/>
-      <c r="AFZ50" s="0"/>
-      <c r="AGA50" s="0"/>
-      <c r="AGB50" s="0"/>
-      <c r="AGC50" s="0"/>
-      <c r="AGD50" s="0"/>
-      <c r="AGE50" s="0"/>
-      <c r="AGF50" s="0"/>
-      <c r="AGG50" s="0"/>
-      <c r="AGH50" s="0"/>
-      <c r="AGI50" s="0"/>
-      <c r="AGJ50" s="0"/>
-      <c r="AGK50" s="0"/>
-      <c r="AGL50" s="0"/>
-      <c r="AGM50" s="0"/>
-      <c r="AGN50" s="0"/>
-      <c r="AGO50" s="0"/>
-      <c r="AGP50" s="0"/>
-      <c r="AGQ50" s="0"/>
-      <c r="AGR50" s="0"/>
-      <c r="AGS50" s="0"/>
-      <c r="AGT50" s="0"/>
-      <c r="AGU50" s="0"/>
-      <c r="AGV50" s="0"/>
-      <c r="AGW50" s="0"/>
-      <c r="AGX50" s="0"/>
-      <c r="AGY50" s="0"/>
-      <c r="AGZ50" s="0"/>
-      <c r="AHA50" s="0"/>
-      <c r="AHB50" s="0"/>
-      <c r="AHC50" s="0"/>
-      <c r="AHD50" s="0"/>
-      <c r="AHE50" s="0"/>
-      <c r="AHF50" s="0"/>
-      <c r="AHG50" s="0"/>
-      <c r="AHH50" s="0"/>
-      <c r="AHI50" s="0"/>
-      <c r="AHJ50" s="0"/>
-      <c r="AHK50" s="0"/>
-      <c r="AHL50" s="0"/>
-      <c r="AHM50" s="0"/>
-      <c r="AHN50" s="0"/>
-      <c r="AHO50" s="0"/>
-      <c r="AHP50" s="0"/>
-      <c r="AHQ50" s="0"/>
-      <c r="AHR50" s="0"/>
-      <c r="AHS50" s="0"/>
-      <c r="AHT50" s="0"/>
-      <c r="AHU50" s="0"/>
-      <c r="AHV50" s="0"/>
-      <c r="AHW50" s="0"/>
-      <c r="AHX50" s="0"/>
-      <c r="AHY50" s="0"/>
-      <c r="AHZ50" s="0"/>
-      <c r="AIA50" s="0"/>
-      <c r="AIB50" s="0"/>
-      <c r="AIC50" s="0"/>
-      <c r="AID50" s="0"/>
-      <c r="AIE50" s="0"/>
-      <c r="AIF50" s="0"/>
-      <c r="AIG50" s="0"/>
-      <c r="AIH50" s="0"/>
-      <c r="AII50" s="0"/>
-      <c r="AIJ50" s="0"/>
-      <c r="AIK50" s="0"/>
-      <c r="AIL50" s="0"/>
-      <c r="AIM50" s="0"/>
-      <c r="AIN50" s="0"/>
-      <c r="AIO50" s="0"/>
-      <c r="AIP50" s="0"/>
-      <c r="AIQ50" s="0"/>
-      <c r="AIR50" s="0"/>
-      <c r="AIS50" s="0"/>
-      <c r="AIT50" s="0"/>
-      <c r="AIU50" s="0"/>
-      <c r="AIV50" s="0"/>
-      <c r="AIW50" s="0"/>
-      <c r="AIX50" s="0"/>
-      <c r="AIY50" s="0"/>
-      <c r="AIZ50" s="0"/>
-      <c r="AJA50" s="0"/>
-      <c r="AJB50" s="0"/>
-      <c r="AJC50" s="0"/>
-      <c r="AJD50" s="0"/>
-      <c r="AJE50" s="0"/>
-      <c r="AJF50" s="0"/>
-      <c r="AJG50" s="0"/>
-      <c r="AJH50" s="0"/>
-      <c r="AJI50" s="0"/>
-      <c r="AJJ50" s="0"/>
-      <c r="AJK50" s="0"/>
-      <c r="AJL50" s="0"/>
-      <c r="AJM50" s="0"/>
-      <c r="AJN50" s="0"/>
-      <c r="AJO50" s="0"/>
-      <c r="AJP50" s="0"/>
-      <c r="AJQ50" s="0"/>
-      <c r="AJR50" s="0"/>
-      <c r="AJS50" s="0"/>
-      <c r="AJT50" s="0"/>
-      <c r="AJU50" s="0"/>
-      <c r="AJV50" s="0"/>
-      <c r="AJW50" s="0"/>
-      <c r="AJX50" s="0"/>
-      <c r="AJY50" s="0"/>
-      <c r="AJZ50" s="0"/>
-      <c r="AKA50" s="0"/>
-      <c r="AKB50" s="0"/>
-      <c r="AKC50" s="0"/>
-      <c r="AKD50" s="0"/>
-      <c r="AKE50" s="0"/>
-      <c r="AKF50" s="0"/>
-      <c r="AKG50" s="0"/>
-      <c r="AKH50" s="0"/>
-      <c r="AKI50" s="0"/>
-      <c r="AKJ50" s="0"/>
-      <c r="AKK50" s="0"/>
-      <c r="AKL50" s="0"/>
-      <c r="AKM50" s="0"/>
-      <c r="AKN50" s="0"/>
-      <c r="AKO50" s="0"/>
-      <c r="AKP50" s="0"/>
-      <c r="AKQ50" s="0"/>
-      <c r="AKR50" s="0"/>
-      <c r="AKS50" s="0"/>
-      <c r="AKT50" s="0"/>
-      <c r="AKU50" s="0"/>
-      <c r="AKV50" s="0"/>
-      <c r="AKW50" s="0"/>
-      <c r="AKX50" s="0"/>
-      <c r="AKY50" s="0"/>
-      <c r="AKZ50" s="0"/>
-      <c r="ALA50" s="0"/>
-      <c r="ALB50" s="0"/>
-      <c r="ALC50" s="0"/>
-      <c r="ALD50" s="0"/>
-      <c r="ALE50" s="0"/>
-      <c r="ALF50" s="0"/>
-      <c r="ALG50" s="0"/>
-      <c r="ALH50" s="0"/>
-      <c r="ALI50" s="0"/>
-      <c r="ALJ50" s="0"/>
-      <c r="ALK50" s="0"/>
-      <c r="ALL50" s="0"/>
-      <c r="ALM50" s="0"/>
-      <c r="ALN50" s="0"/>
-      <c r="ALO50" s="0"/>
-      <c r="ALP50" s="0"/>
-      <c r="ALQ50" s="0"/>
-      <c r="ALR50" s="0"/>
-      <c r="ALS50" s="0"/>
-      <c r="ALT50" s="0"/>
-      <c r="ALU50" s="0"/>
-      <c r="ALV50" s="0"/>
-      <c r="ALW50" s="0"/>
-      <c r="ALX50" s="0"/>
-      <c r="ALY50" s="0"/>
-      <c r="ALZ50" s="0"/>
-      <c r="AMA50" s="0"/>
-      <c r="AMB50" s="0"/>
-      <c r="AMC50" s="0"/>
-      <c r="AMD50" s="0"/>
-      <c r="AME50" s="0"/>
-      <c r="AMF50" s="0"/>
-      <c r="AMG50" s="0"/>
-      <c r="AMH50" s="0"/>
-      <c r="AMI50" s="0"/>
-      <c r="AMJ50" s="0"/>
-    </row>
-    <row r="51" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="s">
+      <c r="C51" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0"/>
+      <c r="H52" s="0"/>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+      <c r="K52" s="0"/>
+      <c r="L52" s="0"/>
+      <c r="M52" s="0"/>
+      <c r="N52" s="0"/>
+      <c r="O52" s="0"/>
+      <c r="P52" s="0"/>
+      <c r="Q52" s="0"/>
+      <c r="R52" s="0"/>
+      <c r="S52" s="0"/>
+      <c r="T52" s="0"/>
+      <c r="U52" s="0"/>
+      <c r="V52" s="0"/>
+      <c r="W52" s="0"/>
+      <c r="X52" s="0"/>
+      <c r="Y52" s="0"/>
+      <c r="Z52" s="0"/>
+      <c r="AA52" s="0"/>
+      <c r="AB52" s="0"/>
+      <c r="AC52" s="0"/>
+      <c r="AD52" s="0"/>
+      <c r="AE52" s="0"/>
+      <c r="AF52" s="0"/>
+      <c r="AG52" s="0"/>
+      <c r="AH52" s="0"/>
+      <c r="AI52" s="0"/>
+      <c r="AJ52" s="0"/>
+      <c r="AK52" s="0"/>
+      <c r="AL52" s="0"/>
+      <c r="AM52" s="0"/>
+      <c r="AN52" s="0"/>
+      <c r="AO52" s="0"/>
+      <c r="AP52" s="0"/>
+      <c r="AQ52" s="0"/>
+      <c r="AR52" s="0"/>
+      <c r="AS52" s="0"/>
+      <c r="AT52" s="0"/>
+      <c r="AU52" s="0"/>
+      <c r="AV52" s="0"/>
+      <c r="AW52" s="0"/>
+      <c r="AX52" s="0"/>
+      <c r="AY52" s="0"/>
+      <c r="AZ52" s="0"/>
+      <c r="BA52" s="0"/>
+      <c r="BB52" s="0"/>
+      <c r="BC52" s="0"/>
+      <c r="BD52" s="0"/>
+      <c r="BE52" s="0"/>
+      <c r="BF52" s="0"/>
+      <c r="BG52" s="0"/>
+      <c r="BH52" s="0"/>
+      <c r="BI52" s="0"/>
+      <c r="BJ52" s="0"/>
+      <c r="BK52" s="0"/>
+      <c r="BL52" s="0"/>
+      <c r="BM52" s="0"/>
+      <c r="BN52" s="0"/>
+      <c r="BO52" s="0"/>
+      <c r="BP52" s="0"/>
+      <c r="BQ52" s="0"/>
+      <c r="BR52" s="0"/>
+      <c r="BS52" s="0"/>
+      <c r="BT52" s="0"/>
+      <c r="BU52" s="0"/>
+      <c r="BV52" s="0"/>
+      <c r="BW52" s="0"/>
+      <c r="BX52" s="0"/>
+      <c r="BY52" s="0"/>
+      <c r="BZ52" s="0"/>
+      <c r="CA52" s="0"/>
+      <c r="CB52" s="0"/>
+      <c r="CC52" s="0"/>
+      <c r="CD52" s="0"/>
+      <c r="CE52" s="0"/>
+      <c r="CF52" s="0"/>
+      <c r="CG52" s="0"/>
+      <c r="CH52" s="0"/>
+      <c r="CI52" s="0"/>
+      <c r="CJ52" s="0"/>
+      <c r="CK52" s="0"/>
+      <c r="CL52" s="0"/>
+      <c r="CM52" s="0"/>
+      <c r="CN52" s="0"/>
+      <c r="CO52" s="0"/>
+      <c r="CP52" s="0"/>
+      <c r="CQ52" s="0"/>
+      <c r="CR52" s="0"/>
+      <c r="CS52" s="0"/>
+      <c r="CT52" s="0"/>
+      <c r="CU52" s="0"/>
+      <c r="CV52" s="0"/>
+      <c r="CW52" s="0"/>
+      <c r="CX52" s="0"/>
+      <c r="CY52" s="0"/>
+      <c r="CZ52" s="0"/>
+      <c r="DA52" s="0"/>
+      <c r="DB52" s="0"/>
+      <c r="DC52" s="0"/>
+      <c r="DD52" s="0"/>
+      <c r="DE52" s="0"/>
+      <c r="DF52" s="0"/>
+      <c r="DG52" s="0"/>
+      <c r="DH52" s="0"/>
+      <c r="DI52" s="0"/>
+      <c r="DJ52" s="0"/>
+      <c r="DK52" s="0"/>
+      <c r="DL52" s="0"/>
+      <c r="DM52" s="0"/>
+      <c r="DN52" s="0"/>
+      <c r="DO52" s="0"/>
+      <c r="DP52" s="0"/>
+      <c r="DQ52" s="0"/>
+      <c r="DR52" s="0"/>
+      <c r="DS52" s="0"/>
+      <c r="DT52" s="0"/>
+      <c r="DU52" s="0"/>
+      <c r="DV52" s="0"/>
+      <c r="DW52" s="0"/>
+      <c r="DX52" s="0"/>
+      <c r="DY52" s="0"/>
+      <c r="DZ52" s="0"/>
+      <c r="EA52" s="0"/>
+      <c r="EB52" s="0"/>
+      <c r="EC52" s="0"/>
+      <c r="ED52" s="0"/>
+      <c r="EE52" s="0"/>
+      <c r="EF52" s="0"/>
+      <c r="EG52" s="0"/>
+      <c r="EH52" s="0"/>
+      <c r="EI52" s="0"/>
+      <c r="EJ52" s="0"/>
+      <c r="EK52" s="0"/>
+      <c r="EL52" s="0"/>
+      <c r="EM52" s="0"/>
+      <c r="EN52" s="0"/>
+      <c r="EO52" s="0"/>
+      <c r="EP52" s="0"/>
+      <c r="EQ52" s="0"/>
+      <c r="ER52" s="0"/>
+      <c r="ES52" s="0"/>
+      <c r="ET52" s="0"/>
+      <c r="EU52" s="0"/>
+      <c r="EV52" s="0"/>
+      <c r="EW52" s="0"/>
+      <c r="EX52" s="0"/>
+      <c r="EY52" s="0"/>
+      <c r="EZ52" s="0"/>
+      <c r="FA52" s="0"/>
+      <c r="FB52" s="0"/>
+      <c r="FC52" s="0"/>
+      <c r="FD52" s="0"/>
+      <c r="FE52" s="0"/>
+      <c r="FF52" s="0"/>
+      <c r="FG52" s="0"/>
+      <c r="FH52" s="0"/>
+      <c r="FI52" s="0"/>
+      <c r="FJ52" s="0"/>
+      <c r="FK52" s="0"/>
+      <c r="FL52" s="0"/>
+      <c r="FM52" s="0"/>
+      <c r="FN52" s="0"/>
+      <c r="FO52" s="0"/>
+      <c r="FP52" s="0"/>
+      <c r="FQ52" s="0"/>
+      <c r="FR52" s="0"/>
+      <c r="FS52" s="0"/>
+      <c r="FT52" s="0"/>
+      <c r="FU52" s="0"/>
+      <c r="FV52" s="0"/>
+      <c r="FW52" s="0"/>
+      <c r="FX52" s="0"/>
+      <c r="FY52" s="0"/>
+      <c r="FZ52" s="0"/>
+      <c r="GA52" s="0"/>
+      <c r="GB52" s="0"/>
+      <c r="GC52" s="0"/>
+      <c r="GD52" s="0"/>
+      <c r="GE52" s="0"/>
+      <c r="GF52" s="0"/>
+      <c r="GG52" s="0"/>
+      <c r="GH52" s="0"/>
+      <c r="GI52" s="0"/>
+      <c r="GJ52" s="0"/>
+      <c r="GK52" s="0"/>
+      <c r="GL52" s="0"/>
+      <c r="GM52" s="0"/>
+      <c r="GN52" s="0"/>
+      <c r="GO52" s="0"/>
+      <c r="GP52" s="0"/>
+      <c r="GQ52" s="0"/>
+      <c r="GR52" s="0"/>
+      <c r="GS52" s="0"/>
+      <c r="GT52" s="0"/>
+      <c r="GU52" s="0"/>
+      <c r="GV52" s="0"/>
+      <c r="GW52" s="0"/>
+      <c r="GX52" s="0"/>
+      <c r="GY52" s="0"/>
+      <c r="GZ52" s="0"/>
+      <c r="HA52" s="0"/>
+      <c r="HB52" s="0"/>
+      <c r="HC52" s="0"/>
+      <c r="HD52" s="0"/>
+      <c r="HE52" s="0"/>
+      <c r="HF52" s="0"/>
+      <c r="HG52" s="0"/>
+      <c r="HH52" s="0"/>
+      <c r="HI52" s="0"/>
+      <c r="HJ52" s="0"/>
+      <c r="HK52" s="0"/>
+      <c r="HL52" s="0"/>
+      <c r="HM52" s="0"/>
+      <c r="HN52" s="0"/>
+      <c r="HO52" s="0"/>
+      <c r="HP52" s="0"/>
+      <c r="HQ52" s="0"/>
+      <c r="HR52" s="0"/>
+      <c r="HS52" s="0"/>
+      <c r="HT52" s="0"/>
+      <c r="HU52" s="0"/>
+      <c r="HV52" s="0"/>
+      <c r="HW52" s="0"/>
+      <c r="HX52" s="0"/>
+      <c r="HY52" s="0"/>
+      <c r="HZ52" s="0"/>
+      <c r="IA52" s="0"/>
+      <c r="IB52" s="0"/>
+      <c r="IC52" s="0"/>
+      <c r="ID52" s="0"/>
+      <c r="IE52" s="0"/>
+      <c r="IF52" s="0"/>
+      <c r="IG52" s="0"/>
+      <c r="IH52" s="0"/>
+      <c r="II52" s="0"/>
+      <c r="IJ52" s="0"/>
+      <c r="IK52" s="0"/>
+      <c r="IL52" s="0"/>
+      <c r="IM52" s="0"/>
+      <c r="IN52" s="0"/>
+      <c r="IO52" s="0"/>
+      <c r="IP52" s="0"/>
+      <c r="IQ52" s="0"/>
+      <c r="IR52" s="0"/>
+      <c r="IS52" s="0"/>
+      <c r="IT52" s="0"/>
+      <c r="IU52" s="0"/>
+      <c r="IV52" s="0"/>
+      <c r="IW52" s="0"/>
+      <c r="IX52" s="0"/>
+      <c r="IY52" s="0"/>
+      <c r="IZ52" s="0"/>
+      <c r="JA52" s="0"/>
+      <c r="JB52" s="0"/>
+      <c r="JC52" s="0"/>
+      <c r="JD52" s="0"/>
+      <c r="JE52" s="0"/>
+      <c r="JF52" s="0"/>
+      <c r="JG52" s="0"/>
+      <c r="JH52" s="0"/>
+      <c r="JI52" s="0"/>
+      <c r="JJ52" s="0"/>
+      <c r="JK52" s="0"/>
+      <c r="JL52" s="0"/>
+      <c r="JM52" s="0"/>
+      <c r="JN52" s="0"/>
+      <c r="JO52" s="0"/>
+      <c r="JP52" s="0"/>
+      <c r="JQ52" s="0"/>
+      <c r="JR52" s="0"/>
+      <c r="JS52" s="0"/>
+      <c r="JT52" s="0"/>
+      <c r="JU52" s="0"/>
+      <c r="JV52" s="0"/>
+      <c r="JW52" s="0"/>
+      <c r="JX52" s="0"/>
+      <c r="JY52" s="0"/>
+      <c r="JZ52" s="0"/>
+      <c r="KA52" s="0"/>
+      <c r="KB52" s="0"/>
+      <c r="KC52" s="0"/>
+      <c r="KD52" s="0"/>
+      <c r="KE52" s="0"/>
+      <c r="KF52" s="0"/>
+      <c r="KG52" s="0"/>
+      <c r="KH52" s="0"/>
+      <c r="KI52" s="0"/>
+      <c r="KJ52" s="0"/>
+      <c r="KK52" s="0"/>
+      <c r="KL52" s="0"/>
+      <c r="KM52" s="0"/>
+      <c r="KN52" s="0"/>
+      <c r="KO52" s="0"/>
+      <c r="KP52" s="0"/>
+      <c r="KQ52" s="0"/>
+      <c r="KR52" s="0"/>
+      <c r="KS52" s="0"/>
+      <c r="KT52" s="0"/>
+      <c r="KU52" s="0"/>
+      <c r="KV52" s="0"/>
+      <c r="KW52" s="0"/>
+      <c r="KX52" s="0"/>
+      <c r="KY52" s="0"/>
+      <c r="KZ52" s="0"/>
+      <c r="LA52" s="0"/>
+      <c r="LB52" s="0"/>
+      <c r="LC52" s="0"/>
+      <c r="LD52" s="0"/>
+      <c r="LE52" s="0"/>
+      <c r="LF52" s="0"/>
+      <c r="LG52" s="0"/>
+      <c r="LH52" s="0"/>
+      <c r="LI52" s="0"/>
+      <c r="LJ52" s="0"/>
+      <c r="LK52" s="0"/>
+      <c r="LL52" s="0"/>
+      <c r="LM52" s="0"/>
+      <c r="LN52" s="0"/>
+      <c r="LO52" s="0"/>
+      <c r="LP52" s="0"/>
+      <c r="LQ52" s="0"/>
+      <c r="LR52" s="0"/>
+      <c r="LS52" s="0"/>
+      <c r="LT52" s="0"/>
+      <c r="LU52" s="0"/>
+      <c r="LV52" s="0"/>
+      <c r="LW52" s="0"/>
+      <c r="LX52" s="0"/>
+      <c r="LY52" s="0"/>
+      <c r="LZ52" s="0"/>
+      <c r="MA52" s="0"/>
+      <c r="MB52" s="0"/>
+      <c r="MC52" s="0"/>
+      <c r="MD52" s="0"/>
+      <c r="ME52" s="0"/>
+      <c r="MF52" s="0"/>
+      <c r="MG52" s="0"/>
+      <c r="MH52" s="0"/>
+      <c r="MI52" s="0"/>
+      <c r="MJ52" s="0"/>
+      <c r="MK52" s="0"/>
+      <c r="ML52" s="0"/>
+      <c r="MM52" s="0"/>
+      <c r="MN52" s="0"/>
+      <c r="MO52" s="0"/>
+      <c r="MP52" s="0"/>
+      <c r="MQ52" s="0"/>
+      <c r="MR52" s="0"/>
+      <c r="MS52" s="0"/>
+      <c r="MT52" s="0"/>
+      <c r="MU52" s="0"/>
+      <c r="MV52" s="0"/>
+      <c r="MW52" s="0"/>
+      <c r="MX52" s="0"/>
+      <c r="MY52" s="0"/>
+      <c r="MZ52" s="0"/>
+      <c r="NA52" s="0"/>
+      <c r="NB52" s="0"/>
+      <c r="NC52" s="0"/>
+      <c r="ND52" s="0"/>
+      <c r="NE52" s="0"/>
+      <c r="NF52" s="0"/>
+      <c r="NG52" s="0"/>
+      <c r="NH52" s="0"/>
+      <c r="NI52" s="0"/>
+      <c r="NJ52" s="0"/>
+      <c r="NK52" s="0"/>
+      <c r="NL52" s="0"/>
+      <c r="NM52" s="0"/>
+      <c r="NN52" s="0"/>
+      <c r="NO52" s="0"/>
+      <c r="NP52" s="0"/>
+      <c r="NQ52" s="0"/>
+      <c r="NR52" s="0"/>
+      <c r="NS52" s="0"/>
+      <c r="NT52" s="0"/>
+      <c r="NU52" s="0"/>
+      <c r="NV52" s="0"/>
+      <c r="NW52" s="0"/>
+      <c r="NX52" s="0"/>
+      <c r="NY52" s="0"/>
+      <c r="NZ52" s="0"/>
+      <c r="OA52" s="0"/>
+      <c r="OB52" s="0"/>
+      <c r="OC52" s="0"/>
+      <c r="OD52" s="0"/>
+      <c r="OE52" s="0"/>
+      <c r="OF52" s="0"/>
+      <c r="OG52" s="0"/>
+      <c r="OH52" s="0"/>
+      <c r="OI52" s="0"/>
+      <c r="OJ52" s="0"/>
+      <c r="OK52" s="0"/>
+      <c r="OL52" s="0"/>
+      <c r="OM52" s="0"/>
+      <c r="ON52" s="0"/>
+      <c r="OO52" s="0"/>
+      <c r="OP52" s="0"/>
+      <c r="OQ52" s="0"/>
+      <c r="OR52" s="0"/>
+      <c r="OS52" s="0"/>
+      <c r="OT52" s="0"/>
+      <c r="OU52" s="0"/>
+      <c r="OV52" s="0"/>
+      <c r="OW52" s="0"/>
+      <c r="OX52" s="0"/>
+      <c r="OY52" s="0"/>
+      <c r="OZ52" s="0"/>
+      <c r="PA52" s="0"/>
+      <c r="PB52" s="0"/>
+      <c r="PC52" s="0"/>
+      <c r="PD52" s="0"/>
+      <c r="PE52" s="0"/>
+      <c r="PF52" s="0"/>
+      <c r="PG52" s="0"/>
+      <c r="PH52" s="0"/>
+      <c r="PI52" s="0"/>
+      <c r="PJ52" s="0"/>
+      <c r="PK52" s="0"/>
+      <c r="PL52" s="0"/>
+      <c r="PM52" s="0"/>
+      <c r="PN52" s="0"/>
+      <c r="PO52" s="0"/>
+      <c r="PP52" s="0"/>
+      <c r="PQ52" s="0"/>
+      <c r="PR52" s="0"/>
+      <c r="PS52" s="0"/>
+      <c r="PT52" s="0"/>
+      <c r="PU52" s="0"/>
+      <c r="PV52" s="0"/>
+      <c r="PW52" s="0"/>
+      <c r="PX52" s="0"/>
+      <c r="PY52" s="0"/>
+      <c r="PZ52" s="0"/>
+      <c r="QA52" s="0"/>
+      <c r="QB52" s="0"/>
+      <c r="QC52" s="0"/>
+      <c r="QD52" s="0"/>
+      <c r="QE52" s="0"/>
+      <c r="QF52" s="0"/>
+      <c r="QG52" s="0"/>
+      <c r="QH52" s="0"/>
+      <c r="QI52" s="0"/>
+      <c r="QJ52" s="0"/>
+      <c r="QK52" s="0"/>
+      <c r="QL52" s="0"/>
+      <c r="QM52" s="0"/>
+      <c r="QN52" s="0"/>
+      <c r="QO52" s="0"/>
+      <c r="QP52" s="0"/>
+      <c r="QQ52" s="0"/>
+      <c r="QR52" s="0"/>
+      <c r="QS52" s="0"/>
+      <c r="QT52" s="0"/>
+      <c r="QU52" s="0"/>
+      <c r="QV52" s="0"/>
+      <c r="QW52" s="0"/>
+      <c r="QX52" s="0"/>
+      <c r="QY52" s="0"/>
+      <c r="QZ52" s="0"/>
+      <c r="RA52" s="0"/>
+      <c r="RB52" s="0"/>
+      <c r="RC52" s="0"/>
+      <c r="RD52" s="0"/>
+      <c r="RE52" s="0"/>
+      <c r="RF52" s="0"/>
+      <c r="RG52" s="0"/>
+      <c r="RH52" s="0"/>
+      <c r="RI52" s="0"/>
+      <c r="RJ52" s="0"/>
+      <c r="RK52" s="0"/>
+      <c r="RL52" s="0"/>
+      <c r="RM52" s="0"/>
+      <c r="RN52" s="0"/>
+      <c r="RO52" s="0"/>
+      <c r="RP52" s="0"/>
+      <c r="RQ52" s="0"/>
+      <c r="RR52" s="0"/>
+      <c r="RS52" s="0"/>
+      <c r="RT52" s="0"/>
+      <c r="RU52" s="0"/>
+      <c r="RV52" s="0"/>
+      <c r="RW52" s="0"/>
+      <c r="RX52" s="0"/>
+      <c r="RY52" s="0"/>
+      <c r="RZ52" s="0"/>
+      <c r="SA52" s="0"/>
+      <c r="SB52" s="0"/>
+      <c r="SC52" s="0"/>
+      <c r="SD52" s="0"/>
+      <c r="SE52" s="0"/>
+      <c r="SF52" s="0"/>
+      <c r="SG52" s="0"/>
+      <c r="SH52" s="0"/>
+      <c r="SI52" s="0"/>
+      <c r="SJ52" s="0"/>
+      <c r="SK52" s="0"/>
+      <c r="SL52" s="0"/>
+      <c r="SM52" s="0"/>
+      <c r="SN52" s="0"/>
+      <c r="SO52" s="0"/>
+      <c r="SP52" s="0"/>
+      <c r="SQ52" s="0"/>
+      <c r="SR52" s="0"/>
+      <c r="SS52" s="0"/>
+      <c r="ST52" s="0"/>
+      <c r="SU52" s="0"/>
+      <c r="SV52" s="0"/>
+      <c r="SW52" s="0"/>
+      <c r="SX52" s="0"/>
+      <c r="SY52" s="0"/>
+      <c r="SZ52" s="0"/>
+      <c r="TA52" s="0"/>
+      <c r="TB52" s="0"/>
+      <c r="TC52" s="0"/>
+      <c r="TD52" s="0"/>
+      <c r="TE52" s="0"/>
+      <c r="TF52" s="0"/>
+      <c r="TG52" s="0"/>
+      <c r="TH52" s="0"/>
+      <c r="TI52" s="0"/>
+      <c r="TJ52" s="0"/>
+      <c r="TK52" s="0"/>
+      <c r="TL52" s="0"/>
+      <c r="TM52" s="0"/>
+      <c r="TN52" s="0"/>
+      <c r="TO52" s="0"/>
+      <c r="TP52" s="0"/>
+      <c r="TQ52" s="0"/>
+      <c r="TR52" s="0"/>
+      <c r="TS52" s="0"/>
+      <c r="TT52" s="0"/>
+      <c r="TU52" s="0"/>
+      <c r="TV52" s="0"/>
+      <c r="TW52" s="0"/>
+      <c r="TX52" s="0"/>
+      <c r="TY52" s="0"/>
+      <c r="TZ52" s="0"/>
+      <c r="UA52" s="0"/>
+      <c r="UB52" s="0"/>
+      <c r="UC52" s="0"/>
+      <c r="UD52" s="0"/>
+      <c r="UE52" s="0"/>
+      <c r="UF52" s="0"/>
+      <c r="UG52" s="0"/>
+      <c r="UH52" s="0"/>
+      <c r="UI52" s="0"/>
+      <c r="UJ52" s="0"/>
+      <c r="UK52" s="0"/>
+      <c r="UL52" s="0"/>
+      <c r="UM52" s="0"/>
+      <c r="UN52" s="0"/>
+      <c r="UO52" s="0"/>
+      <c r="UP52" s="0"/>
+      <c r="UQ52" s="0"/>
+      <c r="UR52" s="0"/>
+      <c r="US52" s="0"/>
+      <c r="UT52" s="0"/>
+      <c r="UU52" s="0"/>
+      <c r="UV52" s="0"/>
+      <c r="UW52" s="0"/>
+      <c r="UX52" s="0"/>
+      <c r="UY52" s="0"/>
+      <c r="UZ52" s="0"/>
+      <c r="VA52" s="0"/>
+      <c r="VB52" s="0"/>
+      <c r="VC52" s="0"/>
+      <c r="VD52" s="0"/>
+      <c r="VE52" s="0"/>
+      <c r="VF52" s="0"/>
+      <c r="VG52" s="0"/>
+      <c r="VH52" s="0"/>
+      <c r="VI52" s="0"/>
+      <c r="VJ52" s="0"/>
+      <c r="VK52" s="0"/>
+      <c r="VL52" s="0"/>
+      <c r="VM52" s="0"/>
+      <c r="VN52" s="0"/>
+      <c r="VO52" s="0"/>
+      <c r="VP52" s="0"/>
+      <c r="VQ52" s="0"/>
+      <c r="VR52" s="0"/>
+      <c r="VS52" s="0"/>
+      <c r="VT52" s="0"/>
+      <c r="VU52" s="0"/>
+      <c r="VV52" s="0"/>
+      <c r="VW52" s="0"/>
+      <c r="VX52" s="0"/>
+      <c r="VY52" s="0"/>
+      <c r="VZ52" s="0"/>
+      <c r="WA52" s="0"/>
+      <c r="WB52" s="0"/>
+      <c r="WC52" s="0"/>
+      <c r="WD52" s="0"/>
+      <c r="WE52" s="0"/>
+      <c r="WF52" s="0"/>
+      <c r="WG52" s="0"/>
+      <c r="WH52" s="0"/>
+      <c r="WI52" s="0"/>
+      <c r="WJ52" s="0"/>
+      <c r="WK52" s="0"/>
+      <c r="WL52" s="0"/>
+      <c r="WM52" s="0"/>
+      <c r="WN52" s="0"/>
+      <c r="WO52" s="0"/>
+      <c r="WP52" s="0"/>
+      <c r="WQ52" s="0"/>
+      <c r="WR52" s="0"/>
+      <c r="WS52" s="0"/>
+      <c r="WT52" s="0"/>
+      <c r="WU52" s="0"/>
+      <c r="WV52" s="0"/>
+      <c r="WW52" s="0"/>
+      <c r="WX52" s="0"/>
+      <c r="WY52" s="0"/>
+      <c r="WZ52" s="0"/>
+      <c r="XA52" s="0"/>
+      <c r="XB52" s="0"/>
+      <c r="XC52" s="0"/>
+      <c r="XD52" s="0"/>
+      <c r="XE52" s="0"/>
+      <c r="XF52" s="0"/>
+      <c r="XG52" s="0"/>
+      <c r="XH52" s="0"/>
+      <c r="XI52" s="0"/>
+      <c r="XJ52" s="0"/>
+      <c r="XK52" s="0"/>
+      <c r="XL52" s="0"/>
+      <c r="XM52" s="0"/>
+      <c r="XN52" s="0"/>
+      <c r="XO52" s="0"/>
+      <c r="XP52" s="0"/>
+      <c r="XQ52" s="0"/>
+      <c r="XR52" s="0"/>
+      <c r="XS52" s="0"/>
+      <c r="XT52" s="0"/>
+      <c r="XU52" s="0"/>
+      <c r="XV52" s="0"/>
+      <c r="XW52" s="0"/>
+      <c r="XX52" s="0"/>
+      <c r="XY52" s="0"/>
+      <c r="XZ52" s="0"/>
+      <c r="YA52" s="0"/>
+      <c r="YB52" s="0"/>
+      <c r="YC52" s="0"/>
+      <c r="YD52" s="0"/>
+      <c r="YE52" s="0"/>
+      <c r="YF52" s="0"/>
+      <c r="YG52" s="0"/>
+      <c r="YH52" s="0"/>
+      <c r="YI52" s="0"/>
+      <c r="YJ52" s="0"/>
+      <c r="YK52" s="0"/>
+      <c r="YL52" s="0"/>
+      <c r="YM52" s="0"/>
+      <c r="YN52" s="0"/>
+      <c r="YO52" s="0"/>
+      <c r="YP52" s="0"/>
+      <c r="YQ52" s="0"/>
+      <c r="YR52" s="0"/>
+      <c r="YS52" s="0"/>
+      <c r="YT52" s="0"/>
+      <c r="YU52" s="0"/>
+      <c r="YV52" s="0"/>
+      <c r="YW52" s="0"/>
+      <c r="YX52" s="0"/>
+      <c r="YY52" s="0"/>
+      <c r="YZ52" s="0"/>
+      <c r="ZA52" s="0"/>
+      <c r="ZB52" s="0"/>
+      <c r="ZC52" s="0"/>
+      <c r="ZD52" s="0"/>
+      <c r="ZE52" s="0"/>
+      <c r="ZF52" s="0"/>
+      <c r="ZG52" s="0"/>
+      <c r="ZH52" s="0"/>
+      <c r="ZI52" s="0"/>
+      <c r="ZJ52" s="0"/>
+      <c r="ZK52" s="0"/>
+      <c r="ZL52" s="0"/>
+      <c r="ZM52" s="0"/>
+      <c r="ZN52" s="0"/>
+      <c r="ZO52" s="0"/>
+      <c r="ZP52" s="0"/>
+      <c r="ZQ52" s="0"/>
+      <c r="ZR52" s="0"/>
+      <c r="ZS52" s="0"/>
+      <c r="ZT52" s="0"/>
+      <c r="ZU52" s="0"/>
+      <c r="ZV52" s="0"/>
+      <c r="ZW52" s="0"/>
+      <c r="ZX52" s="0"/>
+      <c r="ZY52" s="0"/>
+      <c r="ZZ52" s="0"/>
+      <c r="AAA52" s="0"/>
+      <c r="AAB52" s="0"/>
+      <c r="AAC52" s="0"/>
+      <c r="AAD52" s="0"/>
+      <c r="AAE52" s="0"/>
+      <c r="AAF52" s="0"/>
+      <c r="AAG52" s="0"/>
+      <c r="AAH52" s="0"/>
+      <c r="AAI52" s="0"/>
+      <c r="AAJ52" s="0"/>
+      <c r="AAK52" s="0"/>
+      <c r="AAL52" s="0"/>
+      <c r="AAM52" s="0"/>
+      <c r="AAN52" s="0"/>
+      <c r="AAO52" s="0"/>
+      <c r="AAP52" s="0"/>
+      <c r="AAQ52" s="0"/>
+      <c r="AAR52" s="0"/>
+      <c r="AAS52" s="0"/>
+      <c r="AAT52" s="0"/>
+      <c r="AAU52" s="0"/>
+      <c r="AAV52" s="0"/>
+      <c r="AAW52" s="0"/>
+      <c r="AAX52" s="0"/>
+      <c r="AAY52" s="0"/>
+      <c r="AAZ52" s="0"/>
+      <c r="ABA52" s="0"/>
+      <c r="ABB52" s="0"/>
+      <c r="ABC52" s="0"/>
+      <c r="ABD52" s="0"/>
+      <c r="ABE52" s="0"/>
+      <c r="ABF52" s="0"/>
+      <c r="ABG52" s="0"/>
+      <c r="ABH52" s="0"/>
+      <c r="ABI52" s="0"/>
+      <c r="ABJ52" s="0"/>
+      <c r="ABK52" s="0"/>
+      <c r="ABL52" s="0"/>
+      <c r="ABM52" s="0"/>
+      <c r="ABN52" s="0"/>
+      <c r="ABO52" s="0"/>
+      <c r="ABP52" s="0"/>
+      <c r="ABQ52" s="0"/>
+      <c r="ABR52" s="0"/>
+      <c r="ABS52" s="0"/>
+      <c r="ABT52" s="0"/>
+      <c r="ABU52" s="0"/>
+      <c r="ABV52" s="0"/>
+      <c r="ABW52" s="0"/>
+      <c r="ABX52" s="0"/>
+      <c r="ABY52" s="0"/>
+      <c r="ABZ52" s="0"/>
+      <c r="ACA52" s="0"/>
+      <c r="ACB52" s="0"/>
+      <c r="ACC52" s="0"/>
+      <c r="ACD52" s="0"/>
+      <c r="ACE52" s="0"/>
+      <c r="ACF52" s="0"/>
+      <c r="ACG52" s="0"/>
+      <c r="ACH52" s="0"/>
+      <c r="ACI52" s="0"/>
+      <c r="ACJ52" s="0"/>
+      <c r="ACK52" s="0"/>
+      <c r="ACL52" s="0"/>
+      <c r="ACM52" s="0"/>
+      <c r="ACN52" s="0"/>
+      <c r="ACO52" s="0"/>
+      <c r="ACP52" s="0"/>
+      <c r="ACQ52" s="0"/>
+      <c r="ACR52" s="0"/>
+      <c r="ACS52" s="0"/>
+      <c r="ACT52" s="0"/>
+      <c r="ACU52" s="0"/>
+      <c r="ACV52" s="0"/>
+      <c r="ACW52" s="0"/>
+      <c r="ACX52" s="0"/>
+      <c r="ACY52" s="0"/>
+      <c r="ACZ52" s="0"/>
+      <c r="ADA52" s="0"/>
+      <c r="ADB52" s="0"/>
+      <c r="ADC52" s="0"/>
+      <c r="ADD52" s="0"/>
+      <c r="ADE52" s="0"/>
+      <c r="ADF52" s="0"/>
+      <c r="ADG52" s="0"/>
+      <c r="ADH52" s="0"/>
+      <c r="ADI52" s="0"/>
+      <c r="ADJ52" s="0"/>
+      <c r="ADK52" s="0"/>
+      <c r="ADL52" s="0"/>
+      <c r="ADM52" s="0"/>
+      <c r="ADN52" s="0"/>
+      <c r="ADO52" s="0"/>
+      <c r="ADP52" s="0"/>
+      <c r="ADQ52" s="0"/>
+      <c r="ADR52" s="0"/>
+      <c r="ADS52" s="0"/>
+      <c r="ADT52" s="0"/>
+      <c r="ADU52" s="0"/>
+      <c r="ADV52" s="0"/>
+      <c r="ADW52" s="0"/>
+      <c r="ADX52" s="0"/>
+      <c r="ADY52" s="0"/>
+      <c r="ADZ52" s="0"/>
+      <c r="AEA52" s="0"/>
+      <c r="AEB52" s="0"/>
+      <c r="AEC52" s="0"/>
+      <c r="AED52" s="0"/>
+      <c r="AEE52" s="0"/>
+      <c r="AEF52" s="0"/>
+      <c r="AEG52" s="0"/>
+      <c r="AEH52" s="0"/>
+      <c r="AEI52" s="0"/>
+      <c r="AEJ52" s="0"/>
+      <c r="AEK52" s="0"/>
+      <c r="AEL52" s="0"/>
+      <c r="AEM52" s="0"/>
+      <c r="AEN52" s="0"/>
+      <c r="AEO52" s="0"/>
+      <c r="AEP52" s="0"/>
+      <c r="AEQ52" s="0"/>
+      <c r="AER52" s="0"/>
+      <c r="AES52" s="0"/>
+      <c r="AET52" s="0"/>
+      <c r="AEU52" s="0"/>
+      <c r="AEV52" s="0"/>
+      <c r="AEW52" s="0"/>
+      <c r="AEX52" s="0"/>
+      <c r="AEY52" s="0"/>
+      <c r="AEZ52" s="0"/>
+      <c r="AFA52" s="0"/>
+      <c r="AFB52" s="0"/>
+      <c r="AFC52" s="0"/>
+      <c r="AFD52" s="0"/>
+      <c r="AFE52" s="0"/>
+      <c r="AFF52" s="0"/>
+      <c r="AFG52" s="0"/>
+      <c r="AFH52" s="0"/>
+      <c r="AFI52" s="0"/>
+      <c r="AFJ52" s="0"/>
+      <c r="AFK52" s="0"/>
+      <c r="AFL52" s="0"/>
+      <c r="AFM52" s="0"/>
+      <c r="AFN52" s="0"/>
+      <c r="AFO52" s="0"/>
+      <c r="AFP52" s="0"/>
+      <c r="AFQ52" s="0"/>
+      <c r="AFR52" s="0"/>
+      <c r="AFS52" s="0"/>
+      <c r="AFT52" s="0"/>
+      <c r="AFU52" s="0"/>
+      <c r="AFV52" s="0"/>
+      <c r="AFW52" s="0"/>
+      <c r="AFX52" s="0"/>
+      <c r="AFY52" s="0"/>
+      <c r="AFZ52" s="0"/>
+      <c r="AGA52" s="0"/>
+      <c r="AGB52" s="0"/>
+      <c r="AGC52" s="0"/>
+      <c r="AGD52" s="0"/>
+      <c r="AGE52" s="0"/>
+      <c r="AGF52" s="0"/>
+      <c r="AGG52" s="0"/>
+      <c r="AGH52" s="0"/>
+      <c r="AGI52" s="0"/>
+      <c r="AGJ52" s="0"/>
+      <c r="AGK52" s="0"/>
+      <c r="AGL52" s="0"/>
+      <c r="AGM52" s="0"/>
+      <c r="AGN52" s="0"/>
+      <c r="AGO52" s="0"/>
+      <c r="AGP52" s="0"/>
+      <c r="AGQ52" s="0"/>
+      <c r="AGR52" s="0"/>
+      <c r="AGS52" s="0"/>
+      <c r="AGT52" s="0"/>
+      <c r="AGU52" s="0"/>
+      <c r="AGV52" s="0"/>
+      <c r="AGW52" s="0"/>
+      <c r="AGX52" s="0"/>
+      <c r="AGY52" s="0"/>
+      <c r="AGZ52" s="0"/>
+      <c r="AHA52" s="0"/>
+      <c r="AHB52" s="0"/>
+      <c r="AHC52" s="0"/>
+      <c r="AHD52" s="0"/>
+      <c r="AHE52" s="0"/>
+      <c r="AHF52" s="0"/>
+      <c r="AHG52" s="0"/>
+      <c r="AHH52" s="0"/>
+      <c r="AHI52" s="0"/>
+      <c r="AHJ52" s="0"/>
+      <c r="AHK52" s="0"/>
+      <c r="AHL52" s="0"/>
+      <c r="AHM52" s="0"/>
+      <c r="AHN52" s="0"/>
+      <c r="AHO52" s="0"/>
+      <c r="AHP52" s="0"/>
+      <c r="AHQ52" s="0"/>
+      <c r="AHR52" s="0"/>
+      <c r="AHS52" s="0"/>
+      <c r="AHT52" s="0"/>
+      <c r="AHU52" s="0"/>
+      <c r="AHV52" s="0"/>
+      <c r="AHW52" s="0"/>
+      <c r="AHX52" s="0"/>
+      <c r="AHY52" s="0"/>
+      <c r="AHZ52" s="0"/>
+      <c r="AIA52" s="0"/>
+      <c r="AIB52" s="0"/>
+      <c r="AIC52" s="0"/>
+      <c r="AID52" s="0"/>
+      <c r="AIE52" s="0"/>
+      <c r="AIF52" s="0"/>
+      <c r="AIG52" s="0"/>
+      <c r="AIH52" s="0"/>
+      <c r="AII52" s="0"/>
+      <c r="AIJ52" s="0"/>
+      <c r="AIK52" s="0"/>
+      <c r="AIL52" s="0"/>
+      <c r="AIM52" s="0"/>
+      <c r="AIN52" s="0"/>
+      <c r="AIO52" s="0"/>
+      <c r="AIP52" s="0"/>
+      <c r="AIQ52" s="0"/>
+      <c r="AIR52" s="0"/>
+      <c r="AIS52" s="0"/>
+      <c r="AIT52" s="0"/>
+      <c r="AIU52" s="0"/>
+      <c r="AIV52" s="0"/>
+      <c r="AIW52" s="0"/>
+      <c r="AIX52" s="0"/>
+      <c r="AIY52" s="0"/>
+      <c r="AIZ52" s="0"/>
+      <c r="AJA52" s="0"/>
+      <c r="AJB52" s="0"/>
+      <c r="AJC52" s="0"/>
+      <c r="AJD52" s="0"/>
+      <c r="AJE52" s="0"/>
+      <c r="AJF52" s="0"/>
+      <c r="AJG52" s="0"/>
+      <c r="AJH52" s="0"/>
+      <c r="AJI52" s="0"/>
+      <c r="AJJ52" s="0"/>
+      <c r="AJK52" s="0"/>
+      <c r="AJL52" s="0"/>
+      <c r="AJM52" s="0"/>
+      <c r="AJN52" s="0"/>
+      <c r="AJO52" s="0"/>
+      <c r="AJP52" s="0"/>
+      <c r="AJQ52" s="0"/>
+      <c r="AJR52" s="0"/>
+      <c r="AJS52" s="0"/>
+      <c r="AJT52" s="0"/>
+      <c r="AJU52" s="0"/>
+      <c r="AJV52" s="0"/>
+      <c r="AJW52" s="0"/>
+      <c r="AJX52" s="0"/>
+      <c r="AJY52" s="0"/>
+      <c r="AJZ52" s="0"/>
+      <c r="AKA52" s="0"/>
+      <c r="AKB52" s="0"/>
+      <c r="AKC52" s="0"/>
+      <c r="AKD52" s="0"/>
+      <c r="AKE52" s="0"/>
+      <c r="AKF52" s="0"/>
+      <c r="AKG52" s="0"/>
+      <c r="AKH52" s="0"/>
+      <c r="AKI52" s="0"/>
+      <c r="AKJ52" s="0"/>
+      <c r="AKK52" s="0"/>
+      <c r="AKL52" s="0"/>
+      <c r="AKM52" s="0"/>
+      <c r="AKN52" s="0"/>
+      <c r="AKO52" s="0"/>
+      <c r="AKP52" s="0"/>
+      <c r="AKQ52" s="0"/>
+      <c r="AKR52" s="0"/>
+      <c r="AKS52" s="0"/>
+      <c r="AKT52" s="0"/>
+      <c r="AKU52" s="0"/>
+      <c r="AKV52" s="0"/>
+      <c r="AKW52" s="0"/>
+      <c r="AKX52" s="0"/>
+      <c r="AKY52" s="0"/>
+      <c r="AKZ52" s="0"/>
+      <c r="ALA52" s="0"/>
+      <c r="ALB52" s="0"/>
+      <c r="ALC52" s="0"/>
+      <c r="ALD52" s="0"/>
+      <c r="ALE52" s="0"/>
+      <c r="ALF52" s="0"/>
+      <c r="ALG52" s="0"/>
+      <c r="ALH52" s="0"/>
+      <c r="ALI52" s="0"/>
+      <c r="ALJ52" s="0"/>
+      <c r="ALK52" s="0"/>
+      <c r="ALL52" s="0"/>
+      <c r="ALM52" s="0"/>
+      <c r="ALN52" s="0"/>
+      <c r="ALO52" s="0"/>
+      <c r="ALP52" s="0"/>
+      <c r="ALQ52" s="0"/>
+      <c r="ALR52" s="0"/>
+      <c r="ALS52" s="0"/>
+      <c r="ALT52" s="0"/>
+      <c r="ALU52" s="0"/>
+      <c r="ALV52" s="0"/>
+      <c r="ALW52" s="0"/>
+      <c r="ALX52" s="0"/>
+      <c r="ALY52" s="0"/>
+      <c r="ALZ52" s="0"/>
+      <c r="AMA52" s="0"/>
+      <c r="AMB52" s="0"/>
+      <c r="AMC52" s="0"/>
+      <c r="AMD52" s="0"/>
+      <c r="AME52" s="0"/>
+      <c r="AMF52" s="0"/>
+      <c r="AMG52" s="0"/>
+      <c r="AMH52" s="0"/>
+    </row>
+    <row r="53" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-    </row>
-    <row r="54" s="44" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="43" t="s">
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="AMI53" s="0"/>
+      <c r="AMJ53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+    </row>
+    <row r="56" s="45" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46" t="s">
+      <c r="B56" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="R54" s="47"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="48"/>
-      <c r="L55" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="L56" s="38" t="s">
-        <v>105</v>
-      </c>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="R56" s="48"/>
+      <c r="AMI56" s="0"/>
+      <c r="AMJ56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="49" t="s">
-        <v>141</v>
+      <c r="B57" s="25" t="s">
+        <v>0</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="L57" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="49"/>
+      <c r="L57" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="P57" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="25" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="L58" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" s="1" t="s">
+      <c r="C59" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="D59" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="L59" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="P58" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="P59" s="25" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="60" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B60" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="51" t="s">
-        <v>154</v>
-      </c>
+      <c r="L60" s="25"/>
       <c r="M60" s="25"/>
-      <c r="P60" s="25"/>
+      <c r="P60" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AMI60" s="0"/>
+      <c r="AMJ60" s="0"/>
     </row>
     <row r="61" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="25" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B61" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
-      <c r="L61" s="51" t="s">
-        <v>156</v>
-      </c>
+      <c r="L61" s="25"/>
       <c r="M61" s="25"/>
-      <c r="P61" s="25"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="P61" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AMI61" s="0"/>
+      <c r="AMJ61" s="0"/>
+    </row>
+    <row r="62" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+      <c r="C62" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="51" t="s">
         <v>159</v>
+      </c>
+      <c r="M62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="AMI62" s="0"/>
+      <c r="AMJ62" s="0"/>
+    </row>
+    <row r="63" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="M63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="AMI63" s="0"/>
+      <c r="AMJ63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P63" s="25" t="s">
+      <c r="D64" s="1" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F64" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="I64" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="J64" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
-        <v>172</v>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F65" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="I65" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="J65" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="K65" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="N65" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="O65" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P65" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F66" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J66" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I66" s="25" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I67" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J66" s="25" t="s">
+      <c r="N67" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="K66" s="25" t="s">
+      <c r="O67" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="N66" s="24" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="O66" s="24" t="s">
+      <c r="C68" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="P66" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" s="14" t="s">
+      <c r="F68" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I68" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="J68" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K68" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="N68" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="O68" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="P68" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="14" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="B70" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="C70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F69" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="G69" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="J70" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="K70" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="N70" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="O70" s="54" t="s">
-        <v>205</v>
+      <c r="G70" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="71" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="J71" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="K71" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="N71" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="O71" s="54" t="s">
-        <v>210</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G71" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AMI71" s="0"/>
+      <c r="AMJ71" s="0"/>
     </row>
     <row r="72" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F72" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="J72" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="K72" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="N72" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="O72" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="AMI72" s="0"/>
+      <c r="AMJ72" s="0"/>
+    </row>
+    <row r="73" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F73" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="I72" s="14" t="s">
+      <c r="I73" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="J72" s="54" t="s">
+      <c r="J73" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="K72" s="54" t="s">
+      <c r="K73" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="N72" s="54" t="s">
+      <c r="N73" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="O72" s="54" t="s">
+      <c r="O73" s="54" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="73" s="53" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="55" t="s">
+      <c r="AMI73" s="0"/>
+      <c r="AMJ73" s="0"/>
+    </row>
+    <row r="74" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="J74" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="K74" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="N74" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="O74" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="AMI74" s="0"/>
+      <c r="AMJ74" s="0"/>
+    </row>
+    <row r="75" s="53" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="M73" s="55"/>
-      <c r="P73" s="55"/>
-    </row>
-    <row r="74" s="57" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="56" t="s">
+      <c r="B75" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="M75" s="42"/>
+      <c r="P75" s="42"/>
+      <c r="AMI75" s="0"/>
+      <c r="AMJ75" s="0"/>
+    </row>
+    <row r="76" s="56" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="56" t="s">
+      <c r="B76" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C74" s="56" t="s">
+      <c r="C76" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="56" t="s">
+      <c r="D76" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="M74" s="56"/>
-      <c r="P74" s="56"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="25" t="s">
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="55"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="M76" s="55"/>
+      <c r="P76" s="55"/>
+      <c r="AMI76" s="0"/>
+      <c r="AMJ76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="L75" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+      <c r="B77" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="L77" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="77" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C77" s="14" t="s">
+      <c r="B78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E77" s="14" t="s">
+      <c r="D79" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F77" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="L77" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="N77" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="O77" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="55" t="s">
+      <c r="F79" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="L79" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="N79" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="O79" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="AMI79" s="0"/>
+      <c r="AMJ79" s="0"/>
+    </row>
+    <row r="80" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B78" s="55" t="s">
+      <c r="B80" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D78" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E78" s="14" t="s">
+      <c r="D80" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F78" s="58"/>
-      <c r="L78" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="N78" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="O78" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+      <c r="F80" s="57"/>
+      <c r="L80" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="N80" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="O80" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="AMI80" s="0"/>
+      <c r="AMJ80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="K79" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="N79" s="60" t="s">
+      <c r="C81" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="O79" s="60" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+      <c r="D81" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N81" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="O81" s="59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B82" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="J82" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="N80" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="O80" s="60" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F81" s="25"/>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="s">
+      <c r="K82" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N82" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="O82" s="59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F83" s="25"/>
+    </row>
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B83" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L83" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B84" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L84" s="25" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7201,7 +7256,7 @@
         <v>72</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>18</v>
@@ -7210,7 +7265,7 @@
         <v>18</v>
       </c>
       <c r="L85" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7218,7 +7273,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>18</v>
@@ -7227,7 +7282,7 @@
         <v>18</v>
       </c>
       <c r="L86" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7235,7 +7290,7 @@
         <v>72</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>18</v>
@@ -7244,20 +7299,32 @@
         <v>18</v>
       </c>
       <c r="L87" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="L88" s="38"/>
+      <c r="A88" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="25" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>18</v>
@@ -7265,33 +7332,21 @@
       <c r="D89" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L89" s="38" t="s">
-        <v>248</v>
+      <c r="L89" s="25" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L90" s="38" t="s">
-        <v>46</v>
-      </c>
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="L90" s="38"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>18</v>
@@ -7299,8 +7354,8 @@
       <c r="D91" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L91" s="61" t="s">
-        <v>251</v>
+      <c r="L91" s="38" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7308,7 +7363,7 @@
         <v>72</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>18</v>
@@ -7317,7 +7372,7 @@
         <v>18</v>
       </c>
       <c r="L92" s="38" t="s">
-        <v>253</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7325,7 +7380,7 @@
         <v>72</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>18</v>
@@ -7333,55 +7388,89 @@
       <c r="D93" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L93" s="38" t="s">
-        <v>255</v>
+      <c r="L93" s="60" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L94" s="38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L95" s="38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="12"/>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12" t="s">
+      <c r="B96" s="12"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="96" s="44" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="62" t="s">
+      <c r="B97" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" s="45" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B96" s="62"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
-      <c r="J96" s="45"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="62"/>
-      <c r="O96" s="45"/>
-    </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="61"/>
+      <c r="O98" s="46"/>
+      <c r="AMI98" s="0"/>
+      <c r="AMJ98" s="0"/>
+    </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7426,11 +7515,10 @@
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A67 A70:A75 A83:B93 A55:B56 A78 L83:L87 A57:A61">
+  <conditionalFormatting sqref="A69 A85:B95 A57:B58 A80 L85:L89 A59:A63 A72:A77">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7453,7 +7541,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7468,241 +7556,241 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="63" t="s">
+      <c r="A1" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>263</v>
+      <c r="C2" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>265</v>
+      <c r="A3" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>269</v>
+      <c r="A4" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="B5" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="64" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="64" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>277</v>
+      <c r="C7" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>281</v>
+        <v>284</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>284</v>
+        <v>287</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>286</v>
+        <v>291</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>289</v>
+        <v>293</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>299</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>298</v>
+        <v>302</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>301</v>
+        <v>304</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>304</v>
+        <v>307</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7753,49 +7841,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="68" t="s">
-        <v>309</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>312</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>314</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="B1" s="67" t="s">
         <v>315</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>320</v>
       </c>
       <c r="H1" s="38"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C2" s="24" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-12-14  10-51</v>
+        <v>2023-09-07  12-25</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="38" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H2" s="38"/>
     </row>
@@ -7848,56 +7936,56 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="68" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>322</v>
-      </c>
-      <c r="C1" s="70" t="s">
+      <c r="A1" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="70" t="s">
+      <c r="N1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="64" t="s">
+      <c r="O1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="68" t="s">
-        <v>323</v>
+      <c r="Q1" s="67" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7910,10 +7998,10 @@
       <c r="C2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="66"/>
-      <c r="O2" s="66"/>
+      <c r="D2" s="65"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="65"/>
+      <c r="O2" s="65"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
@@ -7925,13 +8013,13 @@
       <c r="C3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="65"/>
       <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="66"/>
-      <c r="O3" s="66"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="65"/>
+      <c r="O3" s="65"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
@@ -7943,34 +8031,34 @@
       <c r="C4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>324</v>
-      </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
+      <c r="D4" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
@@ -7980,14 +8068,14 @@
         <v>26</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="66"/>
-      <c r="O5" s="66"/>
+        <v>330</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="J5" s="71"/>
+      <c r="K5" s="65"/>
+      <c r="O5" s="65"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
@@ -7999,10 +8087,10 @@
       <c r="C6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="66"/>
-      <c r="O6" s="66"/>
+      <c r="D6" s="65"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="65"/>
+      <c r="O6" s="65"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
@@ -8014,39 +8102,39 @@
       <c r="C7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="66"/>
-      <c r="O7" s="66"/>
+      <c r="D7" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="J7" s="71"/>
+      <c r="K7" s="65"/>
+      <c r="O7" s="65"/>
     </row>
     <row r="8" s="24" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
       <c r="AMJ8" s="25"/>
     </row>
     <row r="9" s="24" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8057,34 +8145,34 @@
         <v>33</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
+        <v>333</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
       <c r="AMJ9" s="25"/>
     </row>
     <row r="10" s="24" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="73" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -8092,36 +8180,36 @@
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="75" t="b">
+      <c r="H10" s="74" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
       <c r="L10" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
+        <v>335</v>
+      </c>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
       <c r="S10" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
+        <v>336</v>
+      </c>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
       <c r="AMJ10" s="25"/>
     </row>
     <row r="11" s="24" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8137,636 +8225,636 @@
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
       <c r="L11" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
+        <v>337</v>
+      </c>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
       <c r="AMJ11" s="25"/>
     </row>
     <row r="12" s="53" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="C12" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="77" t="s">
-        <v>334</v>
-      </c>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="76" t="s">
+        <v>339</v>
+      </c>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
       <c r="AMJ12" s="25"/>
     </row>
     <row r="13" s="53" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="75" t="b">
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="74" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="76" t="s">
+        <v>340</v>
+      </c>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
       <c r="AMJ13" s="25"/>
     </row>
     <row r="14" s="24" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
       <c r="AMJ14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="66"/>
-      <c r="O15" s="66"/>
+      <c r="D15" s="65"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="65"/>
+      <c r="O15" s="65"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D16" s="66"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="66"/>
-      <c r="O16" s="66"/>
+      <c r="D16" s="65"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="65"/>
+      <c r="O16" s="65"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D17" s="66"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="66"/>
-      <c r="O17" s="66"/>
+      <c r="D17" s="65"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="65"/>
+      <c r="O17" s="65"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="77" t="s">
-        <v>89</v>
+      <c r="B18" s="76" t="s">
+        <v>91</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="42"/>
+        <v>92</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="43"/>
       <c r="G18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="72"/>
-      <c r="K18" s="66"/>
-      <c r="O18" s="66"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="65"/>
+      <c r="O18" s="65"/>
       <c r="Q18" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="66"/>
-      <c r="F19" s="42"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="66"/>
+      <c r="B19" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="65"/>
+      <c r="F19" s="43"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="65"/>
       <c r="L19" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="O19" s="66"/>
+        <v>341</v>
+      </c>
+      <c r="O19" s="65"/>
       <c r="Q19" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="77" t="s">
-        <v>97</v>
+      <c r="B20" s="76" t="s">
+        <v>99</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="66"/>
-      <c r="F20" s="42"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="66"/>
+      <c r="D20" s="65"/>
+      <c r="F20" s="43"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="65"/>
       <c r="L20" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="O20" s="66"/>
+        <v>100</v>
+      </c>
+      <c r="O20" s="65"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="77" t="s">
-        <v>100</v>
+      <c r="A21" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>102</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="42"/>
+        <v>103</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="43"/>
       <c r="G21" s="25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="72"/>
-      <c r="K21" s="66"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="65"/>
       <c r="L21" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="O21" s="66"/>
+        <v>106</v>
+      </c>
+      <c r="O21" s="65"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="F22" s="42"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="66"/>
+      <c r="D22" s="65"/>
+      <c r="F22" s="43"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="O22" s="66"/>
+        <v>107</v>
+      </c>
+      <c r="O22" s="65"/>
       <c r="Q22" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="F23" s="42"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="66"/>
+      <c r="D23" s="65"/>
+      <c r="F23" s="43"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="O23" s="66"/>
+        <v>107</v>
+      </c>
+      <c r="O23" s="65"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="77" t="s">
-        <v>107</v>
+      <c r="B24" s="76" t="s">
+        <v>109</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="66"/>
-      <c r="O24" s="66"/>
+        <v>110</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="65"/>
+      <c r="O24" s="65"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="77" t="s">
-        <v>111</v>
+      <c r="A25" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>113</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="66" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>115</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="43"/>
       <c r="G25" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="72"/>
-      <c r="K25" s="66"/>
-      <c r="O25" s="66"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="65"/>
+      <c r="O25" s="65"/>
       <c r="P25" s="25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="77" t="s">
-        <v>116</v>
+      <c r="A26" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>118</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="66" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>120</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="42" t="s">
-        <v>337</v>
+      <c r="F26" s="43" t="s">
+        <v>342</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J26" s="72"/>
-      <c r="K26" s="80"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="79"/>
       <c r="L26" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="O26" s="66"/>
+        <v>343</v>
+      </c>
+      <c r="O26" s="65"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="77" t="s">
-        <v>120</v>
+      <c r="A27" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>122</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="66" t="s">
-        <v>121</v>
+      <c r="D27" s="65" t="s">
+        <v>344</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="42" t="s">
-        <v>122</v>
+      <c r="F27" s="43" t="s">
+        <v>125</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="J27" s="72"/>
-      <c r="K27" s="66"/>
+        <v>126</v>
+      </c>
+      <c r="J27" s="71"/>
+      <c r="K27" s="65"/>
       <c r="N27" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="O27" s="66"/>
+        <v>127</v>
+      </c>
+      <c r="O27" s="65"/>
       <c r="Q27" s="25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="77" t="s">
-        <v>127</v>
+      <c r="A28" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>130</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="66" t="s">
-        <v>128</v>
+      <c r="D28" s="65" t="s">
+        <v>345</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="42" t="s">
-        <v>129</v>
+      <c r="F28" s="43" t="s">
+        <v>133</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="J28" s="72"/>
-      <c r="K28" s="66"/>
+        <v>126</v>
+      </c>
+      <c r="J28" s="71"/>
+      <c r="K28" s="65"/>
       <c r="N28" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="O28" s="66"/>
+        <v>134</v>
+      </c>
+      <c r="O28" s="65"/>
       <c r="Q28" s="25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="77" t="s">
-        <v>133</v>
+      <c r="A29" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>137</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="66" t="s">
-        <v>134</v>
+      <c r="D29" s="65" t="s">
+        <v>346</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="42" t="s">
-        <v>339</v>
+      <c r="F29" s="43" t="s">
+        <v>347</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="72"/>
-      <c r="K29" s="66"/>
+        <v>126</v>
+      </c>
+      <c r="J29" s="71"/>
+      <c r="K29" s="65"/>
       <c r="N29" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="O29" s="66"/>
+        <v>141</v>
+      </c>
+      <c r="O29" s="65"/>
       <c r="Q29" s="25" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="81"/>
-      <c r="O30" s="66"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="80"/>
+      <c r="O30" s="65"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="66" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="72"/>
-      <c r="K31" s="66"/>
-      <c r="O31" s="66"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="65"/>
+      <c r="O31" s="65"/>
       <c r="Q31" s="25" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="66"/>
+      <c r="B32" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="65"/>
       <c r="H32" s="24"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="66"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="65"/>
       <c r="L32" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="O32" s="66"/>
+        <v>148</v>
+      </c>
+      <c r="O32" s="65"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="D33" s="66"/>
-      <c r="F33" s="42"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="O33" s="66"/>
+      <c r="B33" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="D33" s="65"/>
+      <c r="F33" s="43"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="O33" s="65"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="77" t="s">
-        <v>343</v>
-      </c>
-      <c r="D34" s="66"/>
-      <c r="F34" s="42"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="O34" s="66"/>
+      <c r="B34" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="D34" s="65"/>
+      <c r="F34" s="43"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="O34" s="65"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="77" t="s">
-        <v>345</v>
-      </c>
-      <c r="D35" s="66"/>
-      <c r="F35" s="42"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="61" t="s">
-        <v>346</v>
-      </c>
-      <c r="O35" s="66"/>
+      <c r="B35" s="76" t="s">
+        <v>353</v>
+      </c>
+      <c r="D35" s="65"/>
+      <c r="F35" s="43"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="O35" s="65"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="66"/>
-      <c r="F36" s="42"/>
+      <c r="D36" s="65"/>
+      <c r="F36" s="43"/>
       <c r="H36" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="72"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="O36" s="66"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="O36" s="65"/>
       <c r="Q36" s="24" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="F37" s="42"/>
+      <c r="D37" s="65"/>
+      <c r="F37" s="43"/>
       <c r="H37" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="72"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="O37" s="66"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="O37" s="65"/>
       <c r="P37" s="25" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q37" s="24" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="76" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="D38" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="D38" s="65" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="J38" s="72"/>
-      <c r="K38" s="66"/>
-      <c r="O38" s="66"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="65"/>
+      <c r="O38" s="65"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="B39" s="77" t="s">
-        <v>189</v>
+      <c r="A39" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="76" t="s">
+        <v>194</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="J39" s="72"/>
-      <c r="K39" s="66"/>
-      <c r="O39" s="66"/>
+        <v>171</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="J39" s="71"/>
+      <c r="K39" s="65"/>
+      <c r="O39" s="65"/>
     </row>
     <row r="40" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="s">
@@ -8776,212 +8864,212 @@
         <v>54</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="55" t="s">
-        <v>351</v>
+      <c r="F40" s="42" t="s">
+        <v>359</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="J40" s="54" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="K40" s="54" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="N40" s="54" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="O40" s="54" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Z40" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB40" s="83" t="s">
-        <v>356</v>
+        <v>363</v>
+      </c>
+      <c r="AB40" s="82" t="s">
+        <v>364</v>
       </c>
       <c r="AMJ40" s="25"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="B41" s="77" t="s">
-        <v>192</v>
+      <c r="A41" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="76" t="s">
+        <v>197</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="66" t="s">
-        <v>194</v>
+        <v>198</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>199</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="J41" s="72"/>
-      <c r="K41" s="66"/>
-      <c r="O41" s="66"/>
+        <v>153</v>
+      </c>
+      <c r="J41" s="71"/>
+      <c r="K41" s="65"/>
+      <c r="O41" s="65"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="82" t="s">
-        <v>224</v>
-      </c>
-      <c r="B42" s="82" t="s">
+      <c r="A42" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" s="81" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="66" t="s">
-        <v>226</v>
+      <c r="D42" s="65" t="s">
+        <v>231</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="73" t="s">
-        <v>357</v>
-      </c>
-      <c r="J42" s="72"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="81"/>
-      <c r="O42" s="66"/>
+      <c r="F42" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="J42" s="71"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="80"/>
+      <c r="O42" s="65"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="82" t="s">
-        <v>358</v>
+      <c r="A43" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="81" t="s">
+        <v>366</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="D43" s="66" t="s">
-        <v>360</v>
+        <v>367</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>368</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>62</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="J43" s="72"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="81"/>
-      <c r="O43" s="66"/>
+        <v>369</v>
+      </c>
+      <c r="J43" s="71"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="80"/>
+      <c r="O43" s="65"/>
       <c r="S43" s="25" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="82" t="s">
-        <v>363</v>
+      <c r="B44" s="81" t="s">
+        <v>371</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="66" t="s">
-        <v>364</v>
+      <c r="D44" s="65" t="s">
+        <v>372</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>62</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="J44" s="72"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="81"/>
+        <v>373</v>
+      </c>
+      <c r="J44" s="71"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="80"/>
       <c r="N44" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="O44" s="66"/>
+        <v>374</v>
+      </c>
+      <c r="O44" s="65"/>
       <c r="S44" s="25" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="77" t="s">
-        <v>232</v>
+      <c r="B45" s="76" t="s">
+        <v>237</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="D45" s="66" t="s">
-        <v>368</v>
+        <v>238</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>376</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="O45" s="66"/>
+        <v>377</v>
+      </c>
+      <c r="O45" s="65"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="77" t="s">
-        <v>239</v>
+      <c r="B46" s="76" t="s">
+        <v>244</v>
       </c>
       <c r="C46" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D46" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="J46" s="25" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="O46" s="66"/>
+        <v>377</v>
+      </c>
+      <c r="O46" s="65"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="84" t="s">
-        <v>323</v>
-      </c>
-      <c r="C47" s="81" t="s">
-        <v>371</v>
-      </c>
-      <c r="D47" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81" t="s">
-        <v>372</v>
-      </c>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="66"/>
-      <c r="O47" s="66"/>
+      <c r="B47" s="83" t="s">
+        <v>328</v>
+      </c>
+      <c r="C47" s="80" t="s">
+        <v>379</v>
+      </c>
+      <c r="D47" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80" t="s">
+        <v>380</v>
+      </c>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="65"/>
+      <c r="O47" s="65"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="25" t="s">
@@ -8993,530 +9081,530 @@
       <c r="C48" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="73" t="s">
+      <c r="D48" s="65"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="81"/>
-      <c r="O48" s="66"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="80"/>
+      <c r="O48" s="65"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="78" t="s">
+      <c r="A49" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="C49" s="81"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
+      <c r="B49" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="80"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
       <c r="H49" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I49" s="81"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="66"/>
-      <c r="P49" s="81"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="81"/>
-      <c r="U49" s="81"/>
-      <c r="V49" s="81"/>
-      <c r="W49" s="81"/>
-      <c r="X49" s="81"/>
-      <c r="Y49" s="81"/>
-      <c r="Z49" s="81"/>
-      <c r="AA49" s="81"/>
-      <c r="AB49" s="81"/>
-      <c r="AC49" s="81"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="80"/>
+      <c r="R49" s="80"/>
+      <c r="S49" s="80"/>
+      <c r="T49" s="80"/>
+      <c r="U49" s="80"/>
+      <c r="V49" s="80"/>
+      <c r="W49" s="80"/>
+      <c r="X49" s="80"/>
+      <c r="Y49" s="80"/>
+      <c r="Z49" s="80"/>
+      <c r="AA49" s="80"/>
+      <c r="AB49" s="80"/>
+      <c r="AC49" s="80"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="78" t="s">
+      <c r="A50" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="85" t="s">
-        <v>373</v>
-      </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
+      <c r="B50" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="C50" s="72"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
       <c r="G50" s="24"/>
       <c r="H50" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I50" s="73"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="81"/>
-      <c r="R50" s="81"/>
-      <c r="S50" s="81"/>
-      <c r="T50" s="81"/>
-      <c r="U50" s="81"/>
-      <c r="V50" s="81"/>
-      <c r="W50" s="81"/>
-      <c r="X50" s="81"/>
-      <c r="Y50" s="81"/>
-      <c r="Z50" s="81"/>
-      <c r="AA50" s="81"/>
-      <c r="AB50" s="81"/>
-      <c r="AC50" s="81"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="80"/>
+      <c r="R50" s="80"/>
+      <c r="S50" s="80"/>
+      <c r="T50" s="80"/>
+      <c r="U50" s="80"/>
+      <c r="V50" s="80"/>
+      <c r="W50" s="80"/>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
+      <c r="Z50" s="80"/>
+      <c r="AA50" s="80"/>
+      <c r="AB50" s="80"/>
+      <c r="AC50" s="80"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="85" t="s">
-        <v>374</v>
-      </c>
-      <c r="C51" s="73"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
+      <c r="B51" s="84" t="s">
+        <v>382</v>
+      </c>
+      <c r="C51" s="72"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
       <c r="H51" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I51" s="73"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="81"/>
-      <c r="R51" s="81"/>
-      <c r="S51" s="81"/>
-      <c r="T51" s="81"/>
-      <c r="U51" s="81"/>
-      <c r="V51" s="81"/>
-      <c r="W51" s="81"/>
-      <c r="X51" s="81"/>
-      <c r="Y51" s="81"/>
-      <c r="Z51" s="81"/>
-      <c r="AA51" s="81"/>
-      <c r="AB51" s="81"/>
-      <c r="AC51" s="81"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="M51" s="80"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="80"/>
+      <c r="R51" s="80"/>
+      <c r="S51" s="80"/>
+      <c r="T51" s="80"/>
+      <c r="U51" s="80"/>
+      <c r="V51" s="80"/>
+      <c r="W51" s="80"/>
+      <c r="X51" s="80"/>
+      <c r="Y51" s="80"/>
+      <c r="Z51" s="80"/>
+      <c r="AA51" s="80"/>
+      <c r="AB51" s="80"/>
+      <c r="AC51" s="80"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="78" t="s">
+      <c r="A52" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="77" t="s">
-        <v>247</v>
-      </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="73" t="s">
-        <v>375</v>
-      </c>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="81"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="81"/>
-      <c r="T52" s="81"/>
-      <c r="U52" s="81"/>
-      <c r="V52" s="81"/>
-      <c r="W52" s="81"/>
-      <c r="X52" s="81"/>
-      <c r="Y52" s="81"/>
-      <c r="Z52" s="81"/>
-      <c r="AA52" s="81"/>
-      <c r="AB52" s="81"/>
-      <c r="AC52" s="81"/>
+      <c r="B52" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="72"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="72" t="s">
+        <v>383</v>
+      </c>
+      <c r="M52" s="80"/>
+      <c r="N52" s="80"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="80"/>
+      <c r="R52" s="80"/>
+      <c r="S52" s="80"/>
+      <c r="T52" s="80"/>
+      <c r="U52" s="80"/>
+      <c r="V52" s="80"/>
+      <c r="W52" s="80"/>
+      <c r="X52" s="80"/>
+      <c r="Y52" s="80"/>
+      <c r="Z52" s="80"/>
+      <c r="AA52" s="80"/>
+      <c r="AB52" s="80"/>
+      <c r="AC52" s="80"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
+      <c r="B53" s="84" t="s">
+        <v>384</v>
+      </c>
+      <c r="C53" s="72"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
       <c r="G53" s="24"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="73" t="s">
-        <v>377</v>
-      </c>
-      <c r="M53" s="81"/>
-      <c r="N53" s="81"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="81"/>
-      <c r="R53" s="81"/>
-      <c r="S53" s="81"/>
-      <c r="T53" s="81"/>
-      <c r="U53" s="81"/>
-      <c r="V53" s="81"/>
-      <c r="W53" s="81"/>
-      <c r="X53" s="81"/>
-      <c r="Y53" s="81"/>
-      <c r="Z53" s="81"/>
-      <c r="AA53" s="81"/>
-      <c r="AB53" s="81"/>
-      <c r="AC53" s="81"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="72" t="s">
+        <v>385</v>
+      </c>
+      <c r="M53" s="80"/>
+      <c r="N53" s="80"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="80"/>
+      <c r="R53" s="80"/>
+      <c r="S53" s="80"/>
+      <c r="T53" s="80"/>
+      <c r="U53" s="80"/>
+      <c r="V53" s="80"/>
+      <c r="W53" s="80"/>
+      <c r="X53" s="80"/>
+      <c r="Y53" s="80"/>
+      <c r="Z53" s="80"/>
+      <c r="AA53" s="80"/>
+      <c r="AB53" s="80"/>
+      <c r="AC53" s="80"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="78" t="s">
+      <c r="A54" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="85" t="s">
-        <v>378</v>
-      </c>
-      <c r="C54" s="73"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="73" t="s">
-        <v>379</v>
-      </c>
-      <c r="M54" s="81"/>
-      <c r="N54" s="81"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="81"/>
-      <c r="R54" s="81"/>
-      <c r="S54" s="81"/>
-      <c r="T54" s="81"/>
-      <c r="U54" s="81"/>
-      <c r="V54" s="81"/>
-      <c r="W54" s="81"/>
-      <c r="X54" s="81"/>
-      <c r="Y54" s="81"/>
-      <c r="Z54" s="81"/>
-      <c r="AA54" s="81"/>
-      <c r="AB54" s="81"/>
-      <c r="AC54" s="81"/>
+      <c r="B54" s="84" t="s">
+        <v>386</v>
+      </c>
+      <c r="C54" s="72"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="M54" s="80"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="80"/>
+      <c r="R54" s="80"/>
+      <c r="S54" s="80"/>
+      <c r="T54" s="80"/>
+      <c r="U54" s="80"/>
+      <c r="V54" s="80"/>
+      <c r="W54" s="80"/>
+      <c r="X54" s="80"/>
+      <c r="Y54" s="80"/>
+      <c r="Z54" s="80"/>
+      <c r="AA54" s="80"/>
+      <c r="AB54" s="80"/>
+      <c r="AC54" s="80"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="81" t="s">
+      <c r="A55" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="81"/>
-      <c r="O55" s="66"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="80"/>
+      <c r="O55" s="65"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="81" t="s">
+      <c r="A56" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="81"/>
-      <c r="O56" s="66"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="80"/>
+      <c r="O56" s="65"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D57" s="66"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="66"/>
-      <c r="O57" s="66"/>
+      <c r="D57" s="65"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="65"/>
+      <c r="O57" s="65"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D58" s="66"/>
-      <c r="J58" s="72"/>
-      <c r="K58" s="66"/>
-      <c r="O58" s="66"/>
+      <c r="D58" s="65"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="65"/>
+      <c r="O58" s="65"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D59" s="66"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="66"/>
-      <c r="O59" s="66"/>
+      <c r="D59" s="65"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="65"/>
+      <c r="O59" s="65"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D60" s="66"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="66"/>
-      <c r="O60" s="66"/>
+      <c r="D60" s="65"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="65"/>
+      <c r="O60" s="65"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D61" s="66"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="66"/>
-      <c r="O61" s="66"/>
+      <c r="D61" s="65"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="65"/>
+      <c r="O61" s="65"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D62" s="66"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="66"/>
-      <c r="O62" s="66"/>
+      <c r="D62" s="65"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="65"/>
+      <c r="O62" s="65"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D63" s="66"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="66"/>
-      <c r="O63" s="66"/>
+      <c r="D63" s="65"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="65"/>
+      <c r="O63" s="65"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D64" s="66"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="66"/>
-      <c r="O64" s="66"/>
+      <c r="D64" s="65"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="65"/>
+      <c r="O64" s="65"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D65" s="66"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="66"/>
-      <c r="O65" s="66"/>
+      <c r="D65" s="65"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="65"/>
+      <c r="O65" s="65"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D66" s="86"/>
-      <c r="J66" s="72"/>
-      <c r="K66" s="66"/>
-      <c r="O66" s="86"/>
+      <c r="D66" s="85"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="65"/>
+      <c r="O66" s="85"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D67" s="66"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="66"/>
-      <c r="O67" s="66"/>
+      <c r="D67" s="65"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="65"/>
+      <c r="O67" s="65"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D68" s="66"/>
-      <c r="J68" s="72"/>
-      <c r="K68" s="66"/>
-      <c r="O68" s="66"/>
+      <c r="D68" s="65"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="65"/>
+      <c r="O68" s="65"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D69" s="86"/>
-      <c r="J69" s="72"/>
-      <c r="K69" s="66"/>
-      <c r="O69" s="86"/>
+      <c r="D69" s="85"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="65"/>
+      <c r="O69" s="85"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D70" s="66"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="66"/>
-      <c r="O70" s="66"/>
+      <c r="D70" s="65"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="65"/>
+      <c r="O70" s="65"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D71" s="86"/>
-      <c r="J71" s="72"/>
-      <c r="K71" s="66"/>
-      <c r="O71" s="86"/>
+      <c r="D71" s="85"/>
+      <c r="J71" s="71"/>
+      <c r="K71" s="65"/>
+      <c r="O71" s="85"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D72" s="66"/>
-      <c r="J72" s="72"/>
-      <c r="K72" s="66"/>
-      <c r="O72" s="66"/>
+      <c r="D72" s="65"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="65"/>
+      <c r="O72" s="65"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D73" s="86"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="66"/>
-      <c r="O73" s="86"/>
+      <c r="D73" s="85"/>
+      <c r="J73" s="71"/>
+      <c r="K73" s="65"/>
+      <c r="O73" s="85"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D74" s="66"/>
-      <c r="J74" s="72"/>
-      <c r="K74" s="66"/>
-      <c r="O74" s="66"/>
+      <c r="D74" s="65"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="65"/>
+      <c r="O74" s="65"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D75" s="66"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="66"/>
-      <c r="O75" s="66"/>
+      <c r="D75" s="65"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="65"/>
+      <c r="O75" s="65"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D76" s="66"/>
-      <c r="J76" s="72"/>
-      <c r="K76" s="66"/>
-      <c r="O76" s="66"/>
+      <c r="D76" s="65"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="65"/>
+      <c r="O76" s="65"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D77" s="86"/>
-      <c r="J77" s="72"/>
-      <c r="K77" s="66"/>
-      <c r="O77" s="86"/>
+      <c r="D77" s="85"/>
+      <c r="J77" s="71"/>
+      <c r="K77" s="65"/>
+      <c r="O77" s="85"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D78" s="66"/>
-      <c r="J78" s="72"/>
-      <c r="K78" s="66"/>
-      <c r="O78" s="66"/>
+      <c r="D78" s="65"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="65"/>
+      <c r="O78" s="65"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D79" s="66"/>
-      <c r="J79" s="72"/>
-      <c r="K79" s="66"/>
-      <c r="O79" s="66"/>
+      <c r="D79" s="65"/>
+      <c r="J79" s="71"/>
+      <c r="K79" s="65"/>
+      <c r="O79" s="65"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D80" s="66"/>
-      <c r="J80" s="72"/>
-      <c r="K80" s="66"/>
-      <c r="O80" s="66"/>
+      <c r="D80" s="65"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="65"/>
+      <c r="O80" s="65"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D81" s="66"/>
-      <c r="J81" s="72"/>
-      <c r="K81" s="66"/>
-      <c r="O81" s="66"/>
+      <c r="D81" s="65"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="65"/>
+      <c r="O81" s="65"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D82" s="66"/>
-      <c r="J82" s="72"/>
-      <c r="K82" s="66"/>
-      <c r="O82" s="66"/>
+      <c r="D82" s="65"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="65"/>
+      <c r="O82" s="65"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D83" s="66"/>
-      <c r="J83" s="72"/>
-      <c r="K83" s="66"/>
-      <c r="O83" s="66"/>
+      <c r="D83" s="65"/>
+      <c r="J83" s="71"/>
+      <c r="K83" s="65"/>
+      <c r="O83" s="65"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D84" s="86"/>
-      <c r="J84" s="72"/>
-      <c r="K84" s="66"/>
-      <c r="O84" s="86"/>
+      <c r="D84" s="85"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="65"/>
+      <c r="O84" s="85"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D85" s="66"/>
-      <c r="J85" s="72"/>
-      <c r="K85" s="66"/>
-      <c r="O85" s="66"/>
+      <c r="D85" s="65"/>
+      <c r="J85" s="71"/>
+      <c r="K85" s="65"/>
+      <c r="O85" s="65"/>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D86" s="66"/>
-      <c r="J86" s="72"/>
-      <c r="K86" s="66"/>
-      <c r="O86" s="66"/>
+      <c r="D86" s="65"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="65"/>
+      <c r="O86" s="65"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D87" s="66"/>
-      <c r="J87" s="72"/>
-      <c r="K87" s="66"/>
-      <c r="O87" s="66"/>
+      <c r="D87" s="65"/>
+      <c r="J87" s="71"/>
+      <c r="K87" s="65"/>
+      <c r="O87" s="65"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D88" s="66"/>
-      <c r="J88" s="72"/>
-      <c r="K88" s="66"/>
-      <c r="O88" s="66"/>
+      <c r="D88" s="65"/>
+      <c r="J88" s="71"/>
+      <c r="K88" s="65"/>
+      <c r="O88" s="65"/>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D89" s="66"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="66"/>
-      <c r="O89" s="66"/>
+      <c r="D89" s="65"/>
+      <c r="J89" s="71"/>
+      <c r="K89" s="65"/>
+      <c r="O89" s="65"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D90" s="66"/>
-      <c r="J90" s="72"/>
-      <c r="K90" s="66"/>
-      <c r="O90" s="66"/>
+      <c r="D90" s="65"/>
+      <c r="J90" s="71"/>
+      <c r="K90" s="65"/>
+      <c r="O90" s="65"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D91" s="66"/>
-      <c r="J91" s="72"/>
-      <c r="K91" s="66"/>
-      <c r="O91" s="66"/>
+      <c r="D91" s="65"/>
+      <c r="J91" s="71"/>
+      <c r="K91" s="65"/>
+      <c r="O91" s="65"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D92" s="66"/>
-      <c r="J92" s="72"/>
-      <c r="K92" s="66"/>
-      <c r="O92" s="66"/>
+      <c r="D92" s="65"/>
+      <c r="J92" s="71"/>
+      <c r="K92" s="65"/>
+      <c r="O92" s="65"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D93" s="66"/>
-      <c r="J93" s="72"/>
-      <c r="K93" s="66"/>
-      <c r="O93" s="66"/>
+      <c r="D93" s="65"/>
+      <c r="J93" s="71"/>
+      <c r="K93" s="65"/>
+      <c r="O93" s="65"/>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D94" s="66"/>
-      <c r="J94" s="72"/>
-      <c r="K94" s="66"/>
-      <c r="O94" s="66"/>
+      <c r="D94" s="65"/>
+      <c r="J94" s="71"/>
+      <c r="K94" s="65"/>
+      <c r="O94" s="65"/>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D95" s="66"/>
-      <c r="J95" s="72"/>
-      <c r="K95" s="66"/>
-      <c r="O95" s="66"/>
+      <c r="D95" s="65"/>
+      <c r="J95" s="71"/>
+      <c r="K95" s="65"/>
+      <c r="O95" s="65"/>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D96" s="66"/>
-      <c r="J96" s="72"/>
-      <c r="K96" s="66"/>
-      <c r="O96" s="66"/>
+      <c r="D96" s="65"/>
+      <c r="J96" s="71"/>
+      <c r="K96" s="65"/>
+      <c r="O96" s="65"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D97" s="66"/>
-      <c r="J97" s="72"/>
-      <c r="K97" s="66"/>
-      <c r="O97" s="66"/>
+      <c r="D97" s="65"/>
+      <c r="J97" s="71"/>
+      <c r="K97" s="65"/>
+      <c r="O97" s="65"/>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D98" s="66"/>
-      <c r="J98" s="72"/>
-      <c r="K98" s="66"/>
-      <c r="O98" s="66"/>
+      <c r="D98" s="65"/>
+      <c r="J98" s="71"/>
+      <c r="K98" s="65"/>
+      <c r="O98" s="65"/>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D99" s="66"/>
-      <c r="J99" s="72"/>
-      <c r="K99" s="80"/>
-      <c r="O99" s="66"/>
+      <c r="D99" s="65"/>
+      <c r="J99" s="71"/>
+      <c r="K99" s="79"/>
+      <c r="O99" s="65"/>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="387">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -246,7 +246,7 @@
     <t xml:space="preserve">${user_role}="chw" and ${place_contact}='yes'</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal-compact</t>
+    <t xml:space="preserve">columns-compact</t>
   </si>
   <si>
     <t xml:space="preserve">.='yesForAccess'</t>
@@ -571,7 +571,7 @@
     <t xml:space="preserve">${user_role} !='chw'</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <t xml:space="preserve">family_contact_select</t>
@@ -634,7 +634,7 @@
     <t xml:space="preserve">selected(../dob_method,'calendar')</t>
   </si>
   <si>
-    <t xml:space="preserve">.&lt;today()</t>
+    <t xml:space="preserve">. &lt;= today()</t>
   </si>
   <si>
     <t xml:space="preserve">Date must be before today</t>
@@ -658,7 +658,7 @@
     <t xml:space="preserve">selected(../dob_method,'approx')</t>
   </si>
   <si>
-    <t xml:space="preserve">.&gt;=0 and .&lt;100</t>
+    <t xml:space="preserve">. &gt;= 0 and . &lt; 100</t>
   </si>
   <si>
     <t xml:space="preserve">Age must between 0 and 99</t>
@@ -788,15 +788,6 @@
   </si>
   <si>
     <t xml:space="preserve">../external_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align:center;"&gt;&lt;b&gt;Patient Code: &lt;/b&gt; &lt;b style="color:green;"&gt;${code}&lt;/b&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align:center;"&gt;&lt;b&gt;Code Patient: &lt;/b&gt; &lt;b style="color:green;"&gt;${code}&lt;/b&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">select_one roles</t>
@@ -1212,6 +1203,9 @@
   </si>
   <si>
     <t xml:space="preserve">../../person/name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horizontal-compact</t>
   </si>
   <si>
     <r>
@@ -1341,6 +1335,9 @@
     <t xml:space="preserve">${facility_id}='' or ${facility_id}='8ee7dd2e-7439-4508-825b-387af85d2f22' or ${facility_id}='8923e916-748e-46ce-8484-ee0a787f6c62' or ${facility_id}='225ecc71-3bc1-492e-bb36-835c44f8de4a' or ${facility_id}='99dbfd3d-e35e-4e36-9230-ea02800adfb4'</t>
   </si>
   <si>
+    <t xml:space="preserve">horizontal</t>
+  </si>
+  <si>
     <t xml:space="preserve">${person_id}=''</t>
   </si>
   <si>
@@ -1419,7 +1416,7 @@
     <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1492,36 +1489,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFC9211E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFC9211E"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF548235"/>
       <name val="Calibri"/>
@@ -1555,6 +1522,13 @@
       <color rgb="FF843C0B"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1692,7 +1666,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1893,26 +1867,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1921,19 +1875,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1941,11 +1883,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1953,7 +1895,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1961,31 +1903,31 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1993,11 +1935,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2009,11 +1955,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2021,11 +1967,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2033,7 +1983,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2359,7 +2309,7 @@
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF843C0B"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
@@ -2378,9 +2328,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>44280</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2390,7 +2340,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="27231840" cy="14305320"/>
+          <a:ext cx="27230040" cy="14303520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2420,9 +2370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>461520</xdr:colOff>
+      <xdr:colOff>459720</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2432,7 +2382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14578200" cy="13102560"/>
+          <a:ext cx="14576400" cy="13100760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2464,10 +2414,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ151"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B44" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K71" activeCellId="0" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2549,7 +2499,9 @@
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="9"/>
       <c r="G2" s="7" t="s">
         <v>19</v>
@@ -2571,7 +2523,9 @@
       <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="G3" s="1" t="s">
         <v>21</v>
@@ -4933,7 +4887,12 @@
       <c r="B19" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="C19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="F19" s="23"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
@@ -4948,7 +4907,12 @@
       <c r="B20" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="C20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="F20" s="23"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
@@ -5061,9 +5025,6 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
       <c r="F29" s="38"/>
       <c r="H29" s="36"/>
       <c r="J29" s="37"/>
@@ -6583,8 +6544,7 @@
       <c r="D58" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="25"/>
-      <c r="I58" s="25"/>
+      <c r="I58" s="49"/>
       <c r="L58" s="38" t="s">
         <v>107</v>
       </c>
@@ -6593,7 +6553,7 @@
       <c r="A59" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="25" t="s">
         <v>146</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -6602,24 +6562,22 @@
       <c r="D59" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="L59" s="25" t="s">
+      <c r="I59" s="49"/>
+      <c r="L59" s="38" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="60" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="s">
         <v>112</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="12" t="s">
         <v>151</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -6631,28 +6589,23 @@
       <c r="G60" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="P60" s="25" t="s">
+      <c r="I60" s="49"/>
+      <c r="L60" s="38"/>
+      <c r="P60" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AMI60" s="0"/>
-      <c r="AMJ60" s="0"/>
-    </row>
-    <row r="61" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="25" t="s">
         <v>112</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="12" t="s">
         <v>156</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -6664,18 +6617,13 @@
       <c r="G61" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="P61" s="25" t="s">
+      <c r="I61" s="49"/>
+      <c r="L61" s="38"/>
+      <c r="P61" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AMI61" s="0"/>
-      <c r="AMJ61" s="0"/>
-    </row>
-    <row r="62" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="25" t="s">
         <v>72</v>
       </c>
@@ -6688,74 +6636,59 @@
       <c r="D62" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="51" t="s">
+      <c r="I62" s="49"/>
+      <c r="L62" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="M62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="AMI62" s="0"/>
-      <c r="AMJ62" s="0"/>
-    </row>
-    <row r="63" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="51" t="s">
+      <c r="I63" s="49"/>
+      <c r="L63" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="M63" s="25"/>
-      <c r="P63" s="25"/>
-      <c r="AMI63" s="0"/>
-      <c r="AMJ63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="12" t="s">
         <v>163</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
+      <c r="I64" s="49"/>
+      <c r="L64" s="38"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="25" t="s">
         <v>164</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="12" t="s">
         <v>167</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -6764,59 +6697,62 @@
       <c r="G65" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="P65" s="25" t="s">
+      <c r="I65" s="49"/>
+      <c r="L65" s="38"/>
+      <c r="P65" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="12" t="s">
         <v>172</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="1" t="s">
         <v>173</v>
       </c>
       <c r="I66" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="J66" s="25" t="s">
+      <c r="J66" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="s">
+      <c r="L66" s="38"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="25" t="s">
         <v>177</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="12" t="s">
         <v>180</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="F67" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I67" s="42" t="s">
+      <c r="I67" s="49" t="s">
         <v>182</v>
       </c>
       <c r="J67" s="1" t="s">
@@ -6825,79 +6761,82 @@
       <c r="K67" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="N67" s="24" t="s">
+      <c r="L67" s="38"/>
+      <c r="N67" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="O67" s="24" t="s">
+      <c r="O67" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="s">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="25" t="s">
         <v>177</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="12" t="s">
         <v>188</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I68" s="25" t="s">
+      <c r="I68" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="J68" s="25" t="s">
+      <c r="J68" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K68" s="25" t="s">
+      <c r="K68" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="N68" s="24" t="s">
+      <c r="L68" s="38"/>
+      <c r="N68" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="O68" s="24" t="s">
+      <c r="O68" s="1" t="s">
         <v>193</v>
       </c>
       <c r="P68" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L69" s="25" t="s">
+      <c r="I69" s="49"/>
+      <c r="L69" s="38" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="12" t="s">
         <v>199</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -6906,349 +6845,350 @@
       <c r="G70" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="71" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="s">
+      <c r="I70" s="49"/>
+      <c r="L70" s="38"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G71" s="53" t="s">
+      <c r="G71" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="I71" s="49"/>
+      <c r="L71" s="38"/>
       <c r="P71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AMI71" s="0"/>
-      <c r="AMJ71" s="0"/>
-    </row>
-    <row r="72" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="s">
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="14" t="s">
+      <c r="I72" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="J72" s="54" t="s">
+      <c r="J72" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K72" s="54" t="s">
+      <c r="K72" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="N72" s="54" t="s">
+      <c r="L72" s="38"/>
+      <c r="N72" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O72" s="54" t="s">
+      <c r="O72" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AMI72" s="0"/>
-      <c r="AMJ72" s="0"/>
-    </row>
-    <row r="73" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F73" s="14" t="s">
+      <c r="F73" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I73" s="14" t="s">
+      <c r="I73" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="J73" s="54" t="s">
+      <c r="J73" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K73" s="54" t="s">
+      <c r="K73" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="N73" s="54" t="s">
+      <c r="L73" s="38"/>
+      <c r="N73" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="O73" s="54" t="s">
+      <c r="O73" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AMI73" s="0"/>
-      <c r="AMJ73" s="0"/>
-    </row>
-    <row r="74" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F74" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I74" s="14" t="s">
+      <c r="I74" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="J74" s="54" t="s">
+      <c r="J74" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="K74" s="54" t="s">
+      <c r="K74" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="N74" s="54" t="s">
+      <c r="L74" s="38"/>
+      <c r="N74" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="O74" s="54" t="s">
+      <c r="O74" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AMI74" s="0"/>
-      <c r="AMJ74" s="0"/>
-    </row>
-    <row r="75" s="53" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="42" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42" t="s">
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="I75" s="49"/>
+      <c r="L75" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="M75" s="42"/>
-      <c r="P75" s="42"/>
-      <c r="AMI75" s="0"/>
-      <c r="AMJ75" s="0"/>
-    </row>
-    <row r="76" s="56" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="55" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="55" t="s">
+      <c r="D76" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55"/>
-      <c r="K76" s="55"/>
-      <c r="L76" s="55" t="s">
+      <c r="I76" s="49"/>
+      <c r="L76" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="M76" s="55"/>
-      <c r="P76" s="55"/>
-      <c r="AMI76" s="0"/>
-      <c r="AMJ76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="L77" s="1" t="s">
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="I77" s="49"/>
+      <c r="L77" s="38" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B78" s="1" t="s">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="B78" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="C78" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="12" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="79" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="s">
+      <c r="E78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="I78" s="49"/>
+      <c r="L78" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="N78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I79" s="49"/>
+      <c r="L79" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="N79" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E79" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F79" s="57" t="s">
+      <c r="O79" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="L79" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="N79" s="14" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="O79" s="14" t="s">
+      <c r="C80" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="AMI79" s="0"/>
-      <c r="AMJ79" s="0"/>
-    </row>
-    <row r="80" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="42" t="s">
+      <c r="D80" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I80" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L80" s="38"/>
+      <c r="N80" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I81" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L81" s="38"/>
+      <c r="N81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F82" s="25"/>
+    </row>
+    <row r="83" s="51" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="50"/>
+      <c r="P83" s="50"/>
+      <c r="AMI83" s="0"/>
+      <c r="AMJ83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F80" s="57"/>
-      <c r="L80" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="N80" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="O80" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="AMI80" s="0"/>
-      <c r="AMJ80" s="0"/>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="N81" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="O81" s="59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="B84" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="N82" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="O82" s="59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F83" s="25"/>
-    </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>68</v>
+      <c r="C84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="25" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7256,7 +7196,7 @@
         <v>72</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>18</v>
@@ -7273,7 +7213,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>18</v>
@@ -7290,7 +7230,7 @@
         <v>72</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>18</v>
@@ -7307,7 +7247,7 @@
         <v>72</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>18</v>
@@ -7320,33 +7260,33 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="L89" s="38"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="B90" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L89" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="L90" s="38"/>
+      <c r="L90" s="38" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>18</v>
@@ -7355,7 +7295,7 @@
         <v>18</v>
       </c>
       <c r="L91" s="38" t="s">
-        <v>253</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7363,7 +7303,7 @@
         <v>72</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>18</v>
@@ -7371,8 +7311,8 @@
       <c r="D92" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L92" s="38" t="s">
-        <v>46</v>
+      <c r="L92" s="52" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7380,7 +7320,7 @@
         <v>72</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>18</v>
@@ -7388,8 +7328,8 @@
       <c r="D93" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L93" s="60" t="s">
-        <v>256</v>
+      <c r="L93" s="38" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7397,7 +7337,7 @@
         <v>72</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>18</v>
@@ -7406,71 +7346,67 @@
         <v>18</v>
       </c>
       <c r="L94" s="38" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L95" s="38" t="s">
-        <v>260</v>
-      </c>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" s="51" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="50"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="50"/>
+      <c r="L95" s="50"/>
+      <c r="M95" s="50"/>
+      <c r="P95" s="50"/>
+      <c r="AMI95" s="0"/>
+      <c r="AMJ95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" s="45" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B96" s="12"/>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" s="45" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="B98" s="61"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="46"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="61"/>
-      <c r="J98" s="46"/>
-      <c r="K98" s="46"/>
-      <c r="L98" s="61"/>
-      <c r="O98" s="46"/>
-      <c r="AMI98" s="0"/>
-      <c r="AMJ98" s="0"/>
-    </row>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="53"/>
+      <c r="J97" s="46"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="53"/>
+      <c r="O97" s="46"/>
+      <c r="AMI97" s="0"/>
+      <c r="AMJ97" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7516,9 +7452,9 @@
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A69 A85:B95 A57:B58 A80 L85:L89 A59:A63 A72:A77">
+  <conditionalFormatting sqref="A84:B94 A57:B81 L84:L88 A83 A95">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7527,8 +7463,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7556,241 +7492,241 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="64" t="s">
+      <c r="D3" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="65" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="56" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="64" t="s">
+      <c r="B4" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="C4" s="56" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="s">
+      <c r="D4" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="64" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C5" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D5" s="57" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="64" t="s">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="B6" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D6" s="57" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="s">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="64" t="s">
+      <c r="D7" s="57" t="s">
         <v>279</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="57" t="s">
         <v>283</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>289</v>
+        <v>285</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>291</v>
+        <v>288</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>295</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="B13" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="58" t="s">
         <v>168</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>303</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>303</v>
+        <v>300</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>304</v>
-      </c>
       <c r="C15" s="49" t="s">
-        <v>305</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>306</v>
+        <v>302</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>308</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>309</v>
+        <v>305</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>310</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7841,49 +7777,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="E1" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="F1" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="G1" s="60" t="s">
         <v>317</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>318</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>320</v>
       </c>
       <c r="H1" s="38"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C2" s="24" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-09-07  12-25</v>
+        <v>2024-07-12  14-27</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="38" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H2" s="38"/>
     </row>
@@ -7936,56 +7872,56 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="67" t="s">
-        <v>326</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>327</v>
-      </c>
-      <c r="C1" s="69" t="s">
+      <c r="A1" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="67" t="s">
-        <v>328</v>
+      <c r="Q1" s="59" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7998,10 +7934,10 @@
       <c r="C2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="65"/>
-      <c r="O2" s="65"/>
+      <c r="D2" s="57"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="57"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
@@ -8013,13 +7949,13 @@
       <c r="C3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="65"/>
+      <c r="D3" s="57"/>
       <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="57"/>
+      <c r="O3" s="57"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
@@ -8031,34 +7967,34 @@
       <c r="C4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="65" t="s">
-        <v>329</v>
-      </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
+      <c r="D4" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
@@ -8068,14 +8004,14 @@
         <v>26</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>331</v>
-      </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="65"/>
-      <c r="O5" s="65"/>
+        <v>327</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="J5" s="63"/>
+      <c r="K5" s="57"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
@@ -8087,10 +8023,10 @@
       <c r="C6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="65"/>
-      <c r="O6" s="65"/>
+      <c r="D6" s="57"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="57"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
@@ -8102,39 +8038,39 @@
       <c r="C7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="65"/>
-      <c r="O7" s="65"/>
+      <c r="D7" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="J7" s="63"/>
+      <c r="K7" s="57"/>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" s="24" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
       <c r="AMJ8" s="25"/>
     </row>
     <row r="9" s="24" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8145,34 +8081,34 @@
         <v>33</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
+        <v>330</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
       <c r="AMJ9" s="25"/>
     </row>
     <row r="10" s="24" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="65" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -8180,36 +8116,36 @@
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="74" t="b">
+      <c r="H10" s="66" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
+        <v>332</v>
+      </c>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
       <c r="S10" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
+        <v>333</v>
+      </c>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
       <c r="AMJ10" s="25"/>
     </row>
     <row r="11" s="24" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8225,32 +8161,32 @@
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
       <c r="L11" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
+        <v>334</v>
+      </c>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
       <c r="AMJ11" s="25"/>
     </row>
-    <row r="12" s="53" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" s="69" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="42" t="s">
         <v>22</v>
       </c>
@@ -8258,37 +8194,37 @@
         <v>1</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>338</v>
-      </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
+        <v>335</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="76" t="s">
-        <v>339</v>
-      </c>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68" t="s">
+        <v>336</v>
+      </c>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
       <c r="AMJ12" s="25"/>
     </row>
-    <row r="13" s="53" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="69" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="42" t="s">
         <v>42</v>
       </c>
@@ -8301,152 +8237,152 @@
       <c r="D13" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="74" t="b">
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="66" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="76" t="s">
-        <v>340</v>
-      </c>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
       <c r="AMJ13" s="25"/>
     </row>
     <row r="14" s="24" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
       <c r="AMJ14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="65"/>
-      <c r="O15" s="65"/>
+      <c r="D15" s="57"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="57"/>
+      <c r="O15" s="57"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D16" s="65"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="65"/>
-      <c r="O16" s="65"/>
+      <c r="D16" s="57"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="57"/>
+      <c r="O16" s="57"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D17" s="65"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="65"/>
-      <c r="O17" s="65"/>
+      <c r="D17" s="57"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="57"/>
+      <c r="O17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="68" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="57" t="s">
         <v>93</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="71"/>
-      <c r="K18" s="65"/>
-      <c r="O18" s="65"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="57"/>
+      <c r="O18" s="57"/>
       <c r="Q18" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="65"/>
+      <c r="D19" s="57"/>
       <c r="F19" s="43"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="65"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="O19" s="65"/>
+        <v>338</v>
+      </c>
+      <c r="O19" s="57"/>
       <c r="Q19" s="25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="68" t="s">
         <v>99</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="65"/>
+      <c r="D20" s="57"/>
       <c r="F20" s="43"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="65"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="O20" s="65"/>
+      <c r="O20" s="57"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="68" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="57" t="s">
         <v>104</v>
       </c>
       <c r="F21" s="43"/>
@@ -8456,77 +8392,77 @@
       <c r="H21" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="71"/>
-      <c r="K21" s="65"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="O21" s="65"/>
+      <c r="O21" s="57"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="65"/>
+      <c r="D22" s="57"/>
       <c r="F22" s="43"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="65"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="O22" s="65"/>
+      <c r="O22" s="57"/>
       <c r="Q22" s="25" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="65"/>
+      <c r="D23" s="57"/>
       <c r="F23" s="43"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="65"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="57"/>
       <c r="L23" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="O23" s="65"/>
+      <c r="O23" s="57"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="68" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="71" t="s">
         <v>111</v>
       </c>
       <c r="F24" s="43"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="65"/>
-      <c r="O24" s="65"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="57"/>
+      <c r="O24" s="57"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="68" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="57" t="s">
         <v>115</v>
       </c>
       <c r="E25" s="24" t="s">
@@ -8534,56 +8470,56 @@
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="71"/>
-      <c r="K25" s="65"/>
-      <c r="O25" s="65"/>
+        <v>339</v>
+      </c>
+      <c r="J25" s="63"/>
+      <c r="K25" s="57"/>
+      <c r="O25" s="57"/>
       <c r="P25" s="25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="68" t="s">
         <v>118</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="57" t="s">
         <v>120</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>62</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="71"/>
-      <c r="K26" s="79"/>
+        <v>339</v>
+      </c>
+      <c r="J26" s="63"/>
+      <c r="K26" s="72"/>
       <c r="L26" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="O26" s="65"/>
+        <v>341</v>
+      </c>
+      <c r="O26" s="57"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="68" t="s">
         <v>122</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="65" t="s">
-        <v>344</v>
+      <c r="D27" s="57" t="s">
+        <v>342</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>62</v>
@@ -8594,28 +8530,28 @@
       <c r="G27" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="65"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="57"/>
       <c r="N27" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="O27" s="65"/>
+      <c r="O27" s="57"/>
       <c r="Q27" s="25" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="68" t="s">
         <v>130</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="65" t="s">
-        <v>345</v>
+      <c r="D28" s="57" t="s">
+        <v>343</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>62</v>
@@ -8626,64 +8562,64 @@
       <c r="G28" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="J28" s="71"/>
-      <c r="K28" s="65"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="57"/>
       <c r="N28" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="O28" s="65"/>
+      <c r="O28" s="57"/>
       <c r="Q28" s="25" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="68" t="s">
         <v>137</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="65" t="s">
-        <v>346</v>
+      <c r="D29" s="57" t="s">
+        <v>344</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="71"/>
-      <c r="K29" s="65"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="57"/>
       <c r="N29" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="O29" s="65"/>
+      <c r="O29" s="57"/>
       <c r="Q29" s="25" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="80"/>
-      <c r="O30" s="65"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="73"/>
+      <c r="O30" s="57"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="s">
@@ -8695,166 +8631,166 @@
       <c r="C31" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="57" t="s">
         <v>93</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="71"/>
-      <c r="K31" s="65"/>
-      <c r="O31" s="65"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="57"/>
+      <c r="O31" s="57"/>
       <c r="Q31" s="25" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="65"/>
+      <c r="D32" s="57"/>
       <c r="H32" s="24"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="65"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="57"/>
       <c r="L32" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="O32" s="65"/>
+      <c r="O32" s="57"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="F33" s="43"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="O33" s="57"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="D33" s="65"/>
-      <c r="F33" s="43"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="60" t="s">
+      <c r="D34" s="57"/>
+      <c r="F34" s="43"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="O33" s="65"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="77" t="s">
+      <c r="O34" s="57"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B35" s="68" t="s">
         <v>351</v>
       </c>
-      <c r="D34" s="65"/>
-      <c r="F34" s="43"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="60" t="s">
+      <c r="D35" s="57"/>
+      <c r="F35" s="43"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="O34" s="65"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="77" t="s">
+      <c r="O35" s="57"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="76" t="s">
-        <v>353</v>
-      </c>
-      <c r="D35" s="65"/>
-      <c r="F35" s="43"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="60" t="s">
-        <v>354</v>
-      </c>
-      <c r="O35" s="65"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="65"/>
+      <c r="D36" s="57"/>
       <c r="F36" s="43"/>
       <c r="H36" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="71"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="72" t="s">
+      <c r="J36" s="63"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="O36" s="65"/>
+      <c r="O36" s="57"/>
       <c r="Q36" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="65"/>
+      <c r="D37" s="57"/>
       <c r="F37" s="43"/>
       <c r="H37" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="71"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="72" t="s">
+      <c r="J37" s="63"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="O37" s="65"/>
+      <c r="O37" s="57"/>
       <c r="P37" s="25" t="s">
         <v>143</v>
       </c>
       <c r="Q37" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="68" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="D38" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="D38" s="57" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="J38" s="71"/>
-      <c r="K38" s="65"/>
-      <c r="O38" s="65"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="57"/>
+      <c r="O38" s="57"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="68" t="s">
         <v>194</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="J39" s="71"/>
-      <c r="K39" s="65"/>
-      <c r="O39" s="65"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="57"/>
+      <c r="O39" s="57"/>
     </row>
     <row r="40" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="s">
@@ -8864,212 +8800,212 @@
         <v>54</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F40" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="J40" s="75" t="s">
         <v>359</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="K40" s="75" t="s">
         <v>360</v>
       </c>
-      <c r="J40" s="54" t="s">
+      <c r="N40" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="O40" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z40" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="K40" s="54" t="s">
+      <c r="AB40" s="76" t="s">
         <v>362</v>
       </c>
-      <c r="N40" s="54" t="s">
-        <v>361</v>
-      </c>
-      <c r="O40" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z40" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB40" s="82" t="s">
-        <v>364</v>
-      </c>
       <c r="AMJ40" s="25"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="76" t="s">
+      <c r="A41" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="68" t="s">
         <v>197</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="57" t="s">
         <v>199</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="J41" s="71"/>
-      <c r="K41" s="65"/>
-      <c r="O41" s="65"/>
+        <v>363</v>
+      </c>
+      <c r="J41" s="63"/>
+      <c r="K41" s="57"/>
+      <c r="O41" s="57"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="B42" s="81" t="s">
+      <c r="A42" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="74" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="65" t="s">
-        <v>231</v>
+      <c r="D42" s="57" t="s">
+        <v>228</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="72" t="s">
+      <c r="F42" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" s="63"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="73"/>
+      <c r="O42" s="57"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="74" t="s">
         <v>365</v>
       </c>
-      <c r="J42" s="71"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="80"/>
-      <c r="O42" s="65"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="81" t="s">
+      <c r="C43" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="D43" s="57" t="s">
         <v>367</v>
-      </c>
-      <c r="D43" s="65" t="s">
-        <v>368</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>62</v>
       </c>
       <c r="F43" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="J43" s="63"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="73"/>
+      <c r="O43" s="57"/>
+      <c r="S43" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="J43" s="71"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="80"/>
-      <c r="O43" s="65"/>
-      <c r="S43" s="25" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="74" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="81" t="s">
-        <v>371</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="65" t="s">
-        <v>372</v>
+      <c r="D44" s="57" t="s">
+        <v>371</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>62</v>
       </c>
       <c r="F44" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="J44" s="63"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="73"/>
+      <c r="N44" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="J44" s="71"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="80"/>
-      <c r="N44" s="25" t="s">
+      <c r="O44" s="57"/>
+      <c r="S44" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="O44" s="65"/>
-      <c r="S44" s="25" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="57" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="76" t="s">
+      <c r="I45" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K45" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="O45" s="57"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B46" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="J46" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="D45" s="65" t="s">
+      <c r="K46" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="K45" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="O45" s="65"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="76" t="s">
+      <c r="O46" s="57"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="D46" s="65" t="s">
+      <c r="B47" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="C47" s="73" t="s">
         <v>378</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="K46" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="O46" s="65"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="83" t="s">
-        <v>328</v>
-      </c>
-      <c r="C47" s="80" t="s">
+      <c r="D47" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73" t="s">
         <v>379</v>
       </c>
-      <c r="D47" s="65" t="s">
-        <v>379</v>
-      </c>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80" t="s">
-        <v>380</v>
-      </c>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="65"/>
-      <c r="O47" s="65"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="57"/>
+      <c r="O47" s="57"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="25" t="s">
@@ -9081,530 +9017,530 @@
       <c r="C48" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="65"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="72" t="s">
+      <c r="D48" s="57"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="80"/>
-      <c r="O48" s="65"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="73"/>
+      <c r="O48" s="57"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="77" t="s">
+      <c r="A49" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="C49" s="80"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
+      <c r="B49" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" s="73"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
       <c r="H49" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I49" s="80"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="72" t="s">
+      <c r="I49" s="73"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="80"/>
-      <c r="R49" s="80"/>
-      <c r="S49" s="80"/>
-      <c r="T49" s="80"/>
-      <c r="U49" s="80"/>
-      <c r="V49" s="80"/>
-      <c r="W49" s="80"/>
-      <c r="X49" s="80"/>
-      <c r="Y49" s="80"/>
-      <c r="Z49" s="80"/>
-      <c r="AA49" s="80"/>
-      <c r="AB49" s="80"/>
-      <c r="AC49" s="80"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="73"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="73"/>
+      <c r="Y49" s="73"/>
+      <c r="Z49" s="73"/>
+      <c r="AA49" s="73"/>
+      <c r="AB49" s="73"/>
+      <c r="AC49" s="73"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="84" t="s">
-        <v>381</v>
-      </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
+      <c r="B50" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
       <c r="G50" s="24"/>
       <c r="H50" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I50" s="72"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="72" t="s">
+      <c r="I50" s="64"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="65"/>
-      <c r="P50" s="80"/>
-      <c r="R50" s="80"/>
-      <c r="S50" s="80"/>
-      <c r="T50" s="80"/>
-      <c r="U50" s="80"/>
-      <c r="V50" s="80"/>
-      <c r="W50" s="80"/>
-      <c r="X50" s="80"/>
-      <c r="Y50" s="80"/>
-      <c r="Z50" s="80"/>
-      <c r="AA50" s="80"/>
-      <c r="AB50" s="80"/>
-      <c r="AC50" s="80"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="73"/>
+      <c r="W50" s="73"/>
+      <c r="X50" s="73"/>
+      <c r="Y50" s="73"/>
+      <c r="Z50" s="73"/>
+      <c r="AA50" s="73"/>
+      <c r="AB50" s="73"/>
+      <c r="AC50" s="73"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="84" t="s">
-        <v>382</v>
-      </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
+      <c r="B51" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
       <c r="H51" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I51" s="72"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="72" t="s">
+      <c r="I51" s="64"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="M51" s="80"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="80"/>
-      <c r="R51" s="80"/>
-      <c r="S51" s="80"/>
-      <c r="T51" s="80"/>
-      <c r="U51" s="80"/>
-      <c r="V51" s="80"/>
-      <c r="W51" s="80"/>
-      <c r="X51" s="80"/>
-      <c r="Y51" s="80"/>
-      <c r="Z51" s="80"/>
-      <c r="AA51" s="80"/>
-      <c r="AB51" s="80"/>
-      <c r="AC51" s="80"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="73"/>
+      <c r="W51" s="73"/>
+      <c r="X51" s="73"/>
+      <c r="Y51" s="73"/>
+      <c r="Z51" s="73"/>
+      <c r="AA51" s="73"/>
+      <c r="AB51" s="73"/>
+      <c r="AC51" s="73"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="72" t="s">
+      <c r="B52" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="73"/>
+      <c r="X52" s="73"/>
+      <c r="Y52" s="73"/>
+      <c r="Z52" s="73"/>
+      <c r="AA52" s="73"/>
+      <c r="AB52" s="73"/>
+      <c r="AC52" s="73"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="M52" s="80"/>
-      <c r="N52" s="80"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="80"/>
-      <c r="R52" s="80"/>
-      <c r="S52" s="80"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="80"/>
-      <c r="V52" s="80"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="80"/>
-      <c r="Y52" s="80"/>
-      <c r="Z52" s="80"/>
-      <c r="AA52" s="80"/>
-      <c r="AB52" s="80"/>
-      <c r="AC52" s="80"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="77" t="s">
+      <c r="C53" s="64"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73"/>
+      <c r="X53" s="73"/>
+      <c r="Y53" s="73"/>
+      <c r="Z53" s="73"/>
+      <c r="AA53" s="73"/>
+      <c r="AB53" s="73"/>
+      <c r="AC53" s="73"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="84" t="s">
-        <v>384</v>
-      </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="72" t="s">
+      <c r="B54" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="65"/>
-      <c r="P53" s="80"/>
-      <c r="R53" s="80"/>
-      <c r="S53" s="80"/>
-      <c r="T53" s="80"/>
-      <c r="U53" s="80"/>
-      <c r="V53" s="80"/>
-      <c r="W53" s="80"/>
-      <c r="X53" s="80"/>
-      <c r="Y53" s="80"/>
-      <c r="Z53" s="80"/>
-      <c r="AA53" s="80"/>
-      <c r="AB53" s="80"/>
-      <c r="AC53" s="80"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="84" t="s">
+      <c r="C54" s="64"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="64" t="s">
         <v>386</v>
       </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="72" t="s">
-        <v>387</v>
-      </c>
-      <c r="M54" s="80"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="65"/>
-      <c r="P54" s="80"/>
-      <c r="R54" s="80"/>
-      <c r="S54" s="80"/>
-      <c r="T54" s="80"/>
-      <c r="U54" s="80"/>
-      <c r="V54" s="80"/>
-      <c r="W54" s="80"/>
-      <c r="X54" s="80"/>
-      <c r="Y54" s="80"/>
-      <c r="Z54" s="80"/>
-      <c r="AA54" s="80"/>
-      <c r="AB54" s="80"/>
-      <c r="AC54" s="80"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="73"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="73"/>
+      <c r="X54" s="73"/>
+      <c r="Y54" s="73"/>
+      <c r="Z54" s="73"/>
+      <c r="AA54" s="73"/>
+      <c r="AB54" s="73"/>
+      <c r="AC54" s="73"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="80"/>
-      <c r="O55" s="65"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="73"/>
+      <c r="O55" s="57"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="80"/>
-      <c r="O56" s="65"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="73"/>
+      <c r="O56" s="57"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D57" s="65"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="65"/>
-      <c r="O57" s="65"/>
+      <c r="D57" s="57"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="57"/>
+      <c r="O57" s="57"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D58" s="65"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="65"/>
-      <c r="O58" s="65"/>
+      <c r="D58" s="57"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="57"/>
+      <c r="O58" s="57"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D59" s="65"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="65"/>
-      <c r="O59" s="65"/>
+      <c r="D59" s="57"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="57"/>
+      <c r="O59" s="57"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D60" s="65"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="65"/>
-      <c r="O60" s="65"/>
+      <c r="D60" s="57"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="57"/>
+      <c r="O60" s="57"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D61" s="65"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="65"/>
-      <c r="O61" s="65"/>
+      <c r="D61" s="57"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="57"/>
+      <c r="O61" s="57"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D62" s="65"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="65"/>
-      <c r="O62" s="65"/>
+      <c r="D62" s="57"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="57"/>
+      <c r="O62" s="57"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D63" s="65"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="65"/>
-      <c r="O63" s="65"/>
+      <c r="D63" s="57"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="57"/>
+      <c r="O63" s="57"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D64" s="65"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="65"/>
-      <c r="O64" s="65"/>
+      <c r="D64" s="57"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="57"/>
+      <c r="O64" s="57"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D65" s="65"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="65"/>
-      <c r="O65" s="65"/>
+      <c r="D65" s="57"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="57"/>
+      <c r="O65" s="57"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D66" s="85"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="65"/>
-      <c r="O66" s="85"/>
+      <c r="D66" s="79"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="57"/>
+      <c r="O66" s="79"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D67" s="65"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="65"/>
-      <c r="O67" s="65"/>
+      <c r="D67" s="57"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="57"/>
+      <c r="O67" s="57"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D68" s="65"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="65"/>
-      <c r="O68" s="65"/>
+      <c r="D68" s="57"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="57"/>
+      <c r="O68" s="57"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D69" s="85"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="65"/>
-      <c r="O69" s="85"/>
+      <c r="D69" s="79"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="57"/>
+      <c r="O69" s="79"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D70" s="65"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="65"/>
-      <c r="O70" s="65"/>
+      <c r="D70" s="57"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="57"/>
+      <c r="O70" s="57"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D71" s="85"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="65"/>
-      <c r="O71" s="85"/>
+      <c r="D71" s="79"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="57"/>
+      <c r="O71" s="79"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D72" s="65"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="65"/>
-      <c r="O72" s="65"/>
+      <c r="D72" s="57"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="57"/>
+      <c r="O72" s="57"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D73" s="85"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="65"/>
-      <c r="O73" s="85"/>
+      <c r="D73" s="79"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="57"/>
+      <c r="O73" s="79"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D74" s="65"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="65"/>
-      <c r="O74" s="65"/>
+      <c r="D74" s="57"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="57"/>
+      <c r="O74" s="57"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D75" s="65"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="65"/>
-      <c r="O75" s="65"/>
+      <c r="D75" s="57"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="57"/>
+      <c r="O75" s="57"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D76" s="65"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="65"/>
-      <c r="O76" s="65"/>
+      <c r="D76" s="57"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="57"/>
+      <c r="O76" s="57"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D77" s="85"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="65"/>
-      <c r="O77" s="85"/>
+      <c r="D77" s="79"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="57"/>
+      <c r="O77" s="79"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D78" s="65"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="65"/>
-      <c r="O78" s="65"/>
+      <c r="D78" s="57"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="57"/>
+      <c r="O78" s="57"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D79" s="65"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="65"/>
-      <c r="O79" s="65"/>
+      <c r="D79" s="57"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="57"/>
+      <c r="O79" s="57"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D80" s="65"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="65"/>
-      <c r="O80" s="65"/>
+      <c r="D80" s="57"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="57"/>
+      <c r="O80" s="57"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D81" s="65"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="65"/>
-      <c r="O81" s="65"/>
+      <c r="D81" s="57"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="57"/>
+      <c r="O81" s="57"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D82" s="65"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="65"/>
-      <c r="O82" s="65"/>
+      <c r="D82" s="57"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="57"/>
+      <c r="O82" s="57"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D83" s="65"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="65"/>
-      <c r="O83" s="65"/>
+      <c r="D83" s="57"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="57"/>
+      <c r="O83" s="57"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D84" s="85"/>
-      <c r="J84" s="71"/>
-      <c r="K84" s="65"/>
-      <c r="O84" s="85"/>
+      <c r="D84" s="79"/>
+      <c r="J84" s="63"/>
+      <c r="K84" s="57"/>
+      <c r="O84" s="79"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D85" s="65"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="65"/>
-      <c r="O85" s="65"/>
+      <c r="D85" s="57"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="57"/>
+      <c r="O85" s="57"/>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D86" s="65"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="65"/>
-      <c r="O86" s="65"/>
+      <c r="D86" s="57"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="57"/>
+      <c r="O86" s="57"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D87" s="65"/>
-      <c r="J87" s="71"/>
-      <c r="K87" s="65"/>
-      <c r="O87" s="65"/>
+      <c r="D87" s="57"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="57"/>
+      <c r="O87" s="57"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D88" s="65"/>
-      <c r="J88" s="71"/>
-      <c r="K88" s="65"/>
-      <c r="O88" s="65"/>
+      <c r="D88" s="57"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="57"/>
+      <c r="O88" s="57"/>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D89" s="65"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="65"/>
-      <c r="O89" s="65"/>
+      <c r="D89" s="57"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="57"/>
+      <c r="O89" s="57"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D90" s="65"/>
-      <c r="J90" s="71"/>
-      <c r="K90" s="65"/>
-      <c r="O90" s="65"/>
+      <c r="D90" s="57"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="57"/>
+      <c r="O90" s="57"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D91" s="65"/>
-      <c r="J91" s="71"/>
-      <c r="K91" s="65"/>
-      <c r="O91" s="65"/>
+      <c r="D91" s="57"/>
+      <c r="J91" s="63"/>
+      <c r="K91" s="57"/>
+      <c r="O91" s="57"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D92" s="65"/>
-      <c r="J92" s="71"/>
-      <c r="K92" s="65"/>
-      <c r="O92" s="65"/>
+      <c r="D92" s="57"/>
+      <c r="J92" s="63"/>
+      <c r="K92" s="57"/>
+      <c r="O92" s="57"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D93" s="65"/>
-      <c r="J93" s="71"/>
-      <c r="K93" s="65"/>
-      <c r="O93" s="65"/>
+      <c r="D93" s="57"/>
+      <c r="J93" s="63"/>
+      <c r="K93" s="57"/>
+      <c r="O93" s="57"/>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D94" s="65"/>
-      <c r="J94" s="71"/>
-      <c r="K94" s="65"/>
-      <c r="O94" s="65"/>
+      <c r="D94" s="57"/>
+      <c r="J94" s="63"/>
+      <c r="K94" s="57"/>
+      <c r="O94" s="57"/>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D95" s="65"/>
-      <c r="J95" s="71"/>
-      <c r="K95" s="65"/>
-      <c r="O95" s="65"/>
+      <c r="D95" s="57"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="57"/>
+      <c r="O95" s="57"/>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D96" s="65"/>
-      <c r="J96" s="71"/>
-      <c r="K96" s="65"/>
-      <c r="O96" s="65"/>
+      <c r="D96" s="57"/>
+      <c r="J96" s="63"/>
+      <c r="K96" s="57"/>
+      <c r="O96" s="57"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D97" s="65"/>
-      <c r="J97" s="71"/>
-      <c r="K97" s="65"/>
-      <c r="O97" s="65"/>
+      <c r="D97" s="57"/>
+      <c r="J97" s="63"/>
+      <c r="K97" s="57"/>
+      <c r="O97" s="57"/>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D98" s="65"/>
-      <c r="J98" s="71"/>
-      <c r="K98" s="65"/>
-      <c r="O98" s="65"/>
+      <c r="D98" s="57"/>
+      <c r="J98" s="63"/>
+      <c r="K98" s="57"/>
+      <c r="O98" s="57"/>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D99" s="65"/>
-      <c r="J99" s="71"/>
-      <c r="K99" s="79"/>
-      <c r="O99" s="65"/>
+      <c r="D99" s="57"/>
+      <c r="J99" s="63"/>
+      <c r="K99" s="72"/>
+      <c r="O99" s="57"/>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
